--- a/data/pca/factorExposure/factorExposure_2011-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.006776299088631562</v>
+        <v>-0.01535322592220951</v>
       </c>
       <c r="C2">
-        <v>0.01140229468625558</v>
+        <v>0.000751018887139964</v>
       </c>
       <c r="D2">
-        <v>-0.05302970318924693</v>
+        <v>-0.005015772255521402</v>
       </c>
       <c r="E2">
-        <v>-0.001625316851848741</v>
+        <v>0.03084995220757525</v>
       </c>
       <c r="F2">
-        <v>-0.001004493307344061</v>
+        <v>0.002211803908171007</v>
       </c>
       <c r="G2">
-        <v>-0.0342516297693909</v>
+        <v>0.007186482117208922</v>
       </c>
       <c r="H2">
-        <v>-0.03563511142172628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.03258642369146042</v>
+      </c>
+      <c r="I2">
+        <v>-0.02347153126315806</v>
+      </c>
+      <c r="J2">
+        <v>0.013097878893456</v>
+      </c>
+      <c r="K2">
+        <v>0.0415223323285864</v>
+      </c>
+      <c r="L2">
+        <v>-0.01996793162778666</v>
+      </c>
+      <c r="M2">
+        <v>0.01085828656295975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08355013050087141</v>
+        <v>-0.1084091952887572</v>
       </c>
       <c r="C4">
-        <v>-0.05585386730109067</v>
+        <v>-0.07544176877945082</v>
       </c>
       <c r="D4">
-        <v>-0.0297521251737929</v>
+        <v>-0.009882805710969595</v>
       </c>
       <c r="E4">
-        <v>-0.03280362510435419</v>
+        <v>0.03503202101651363</v>
       </c>
       <c r="F4">
-        <v>-0.02110784274904712</v>
+        <v>-0.163265624434295</v>
       </c>
       <c r="G4">
-        <v>-0.02091820962446385</v>
+        <v>-0.02299193934513829</v>
       </c>
       <c r="H4">
-        <v>0.03162312511553629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.03032622101720885</v>
+      </c>
+      <c r="I4">
+        <v>0.04044950624033965</v>
+      </c>
+      <c r="J4">
+        <v>-0.01984214761326289</v>
+      </c>
+      <c r="K4">
+        <v>-0.0852912273084028</v>
+      </c>
+      <c r="L4">
+        <v>-0.02179536568683673</v>
+      </c>
+      <c r="M4">
+        <v>-0.07298509977946789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1338341269822779</v>
+        <v>-0.1352487878770361</v>
       </c>
       <c r="C6">
-        <v>-0.03791610511116592</v>
+        <v>-0.05482094962308125</v>
       </c>
       <c r="D6">
-        <v>-0.04653164143291057</v>
+        <v>-0.005629039876727773</v>
       </c>
       <c r="E6">
-        <v>-0.06359258268087506</v>
+        <v>-0.00586862295240258</v>
       </c>
       <c r="F6">
-        <v>0.1148948355566614</v>
+        <v>0.01120927038722722</v>
       </c>
       <c r="G6">
-        <v>0.1312197415390236</v>
+        <v>-0.09705395430631181</v>
       </c>
       <c r="H6">
-        <v>0.1255516566651888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.001412206198863481</v>
+      </c>
+      <c r="I6">
+        <v>0.2961880351054046</v>
+      </c>
+      <c r="J6">
+        <v>-0.3303714963040793</v>
+      </c>
+      <c r="K6">
+        <v>0.02565630012922054</v>
+      </c>
+      <c r="L6">
+        <v>-0.1670980030519461</v>
+      </c>
+      <c r="M6">
+        <v>0.02370479228998181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.0783387528179541</v>
+        <v>-0.06855481062220159</v>
       </c>
       <c r="C7">
-        <v>-0.04892724364212495</v>
+        <v>-0.05970399371335167</v>
       </c>
       <c r="D7">
-        <v>-0.04387974859978226</v>
+        <v>-0.004097385627356748</v>
       </c>
       <c r="E7">
-        <v>-0.04674353136861092</v>
+        <v>0.0577043932434356</v>
       </c>
       <c r="F7">
-        <v>0.03847376716030459</v>
+        <v>-0.03555079528689097</v>
       </c>
       <c r="G7">
-        <v>0.004260331366773016</v>
+        <v>-0.001550457345630007</v>
       </c>
       <c r="H7">
-        <v>-0.02702949909533849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.0247462404948629</v>
+      </c>
+      <c r="I7">
+        <v>-0.008187340419472389</v>
+      </c>
+      <c r="J7">
+        <v>0.06180121874181398</v>
+      </c>
+      <c r="K7">
+        <v>-0.1074390754001101</v>
+      </c>
+      <c r="L7">
+        <v>-0.003751578677549887</v>
+      </c>
+      <c r="M7">
+        <v>0.04172732723186261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03932257071698793</v>
+        <v>-0.04267017066097239</v>
       </c>
       <c r="C8">
-        <v>-0.02454464744517321</v>
+        <v>-0.01763169363288107</v>
       </c>
       <c r="D8">
-        <v>-0.05540328910335994</v>
+        <v>-0.006077350165599223</v>
       </c>
       <c r="E8">
-        <v>-0.04978993226268202</v>
+        <v>0.01790261511308219</v>
       </c>
       <c r="F8">
-        <v>-0.01511158158030211</v>
+        <v>-0.1360984717926796</v>
       </c>
       <c r="G8">
-        <v>-0.05973884684521434</v>
+        <v>0.008989112666896261</v>
       </c>
       <c r="H8">
-        <v>-0.04687045068439407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.03607856152005191</v>
+      </c>
+      <c r="I8">
+        <v>0.06659631798003679</v>
+      </c>
+      <c r="J8">
+        <v>0.003234107485913218</v>
+      </c>
+      <c r="K8">
+        <v>-0.06792530291143431</v>
+      </c>
+      <c r="L8">
+        <v>-0.07303178789649205</v>
+      </c>
+      <c r="M8">
+        <v>-0.07895285020319399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07805574206281889</v>
+        <v>-0.0828205183298414</v>
       </c>
       <c r="C9">
-        <v>-0.05714270892446745</v>
+        <v>-0.06405148588025664</v>
       </c>
       <c r="D9">
-        <v>-0.03344981267599818</v>
+        <v>0.009805021899477177</v>
       </c>
       <c r="E9">
-        <v>-0.0239000689727753</v>
+        <v>0.02929718510671734</v>
       </c>
       <c r="F9">
-        <v>-0.006992861726012645</v>
+        <v>-0.1426912856007324</v>
       </c>
       <c r="G9">
-        <v>-0.0240798881198238</v>
+        <v>-0.02587372949251904</v>
       </c>
       <c r="H9">
-        <v>-0.01392605236667414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.002768545279220092</v>
+      </c>
+      <c r="I9">
+        <v>0.01446026124801245</v>
+      </c>
+      <c r="J9">
+        <v>0.001200695183650033</v>
+      </c>
+      <c r="K9">
+        <v>-0.05350121117083324</v>
+      </c>
+      <c r="L9">
+        <v>-0.03146509073772524</v>
+      </c>
+      <c r="M9">
+        <v>-0.004262583106481723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.04640462391729896</v>
+        <v>-0.1110973085141894</v>
       </c>
       <c r="C10">
-        <v>0.1454553222930154</v>
+        <v>0.1646581445520887</v>
       </c>
       <c r="D10">
-        <v>-0.07734152528536202</v>
+        <v>-0.009836191230376819</v>
       </c>
       <c r="E10">
-        <v>-0.03451991329988281</v>
+        <v>0.03059562103561658</v>
       </c>
       <c r="F10">
-        <v>0.03642535683688166</v>
+        <v>0.01395988213444139</v>
       </c>
       <c r="G10">
-        <v>0.006448768963938767</v>
+        <v>-0.0234229679030091</v>
       </c>
       <c r="H10">
-        <v>0.01487048738783386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.02987542554150114</v>
+      </c>
+      <c r="I10">
+        <v>-0.01863476072420902</v>
+      </c>
+      <c r="J10">
+        <v>-0.01237057452435568</v>
+      </c>
+      <c r="K10">
+        <v>0.0007826475707390947</v>
+      </c>
+      <c r="L10">
+        <v>0.04088283357806693</v>
+      </c>
+      <c r="M10">
+        <v>0.1046707939000997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06748505048682808</v>
+        <v>-0.06873624998054562</v>
       </c>
       <c r="C11">
-        <v>-0.06929760433102257</v>
+        <v>-0.06996775745105946</v>
       </c>
       <c r="D11">
-        <v>-0.01024336540074464</v>
+        <v>0.03244234046612629</v>
       </c>
       <c r="E11">
-        <v>0.0139242903545169</v>
+        <v>0.01434826140946919</v>
       </c>
       <c r="F11">
-        <v>0.009392066460694189</v>
+        <v>-0.1170805648800378</v>
       </c>
       <c r="G11">
-        <v>-0.1122495790089397</v>
+        <v>-0.009369107929379601</v>
       </c>
       <c r="H11">
-        <v>-0.07982117924133048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05278330189513239</v>
+      </c>
+      <c r="I11">
+        <v>-0.05914661075640067</v>
+      </c>
+      <c r="J11">
+        <v>0.07558995136851436</v>
+      </c>
+      <c r="K11">
+        <v>0.03915468385131196</v>
+      </c>
+      <c r="L11">
+        <v>-0.03459112661373915</v>
+      </c>
+      <c r="M11">
+        <v>0.1125403179556424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06347571416590563</v>
+        <v>-0.06830421459656698</v>
       </c>
       <c r="C12">
-        <v>-0.04181091511123199</v>
+        <v>-0.06241374816894075</v>
       </c>
       <c r="D12">
-        <v>0.00297010846719319</v>
+        <v>0.0295799298956262</v>
       </c>
       <c r="E12">
-        <v>-0.02904816007910875</v>
+        <v>0.005053331907259742</v>
       </c>
       <c r="F12">
-        <v>0.02132527294181381</v>
+        <v>-0.1282455463228441</v>
       </c>
       <c r="G12">
-        <v>-0.09199499000870974</v>
+        <v>0.0005989658199235521</v>
       </c>
       <c r="H12">
-        <v>-0.09274088840670854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.04302331118069714</v>
+      </c>
+      <c r="I12">
+        <v>-0.02410551042776831</v>
+      </c>
+      <c r="J12">
+        <v>0.07824654319535854</v>
+      </c>
+      <c r="K12">
+        <v>0.02816714053838916</v>
+      </c>
+      <c r="L12">
+        <v>-0.05092929351110556</v>
+      </c>
+      <c r="M12">
+        <v>0.1257507587030561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05435391751989616</v>
+        <v>-0.04434151907542789</v>
       </c>
       <c r="C13">
-        <v>-0.004071708521830819</v>
+        <v>-0.03210047175927702</v>
       </c>
       <c r="D13">
-        <v>-0.001801136870134058</v>
+        <v>-0.01833411906607406</v>
       </c>
       <c r="E13">
-        <v>-0.01907503951821236</v>
+        <v>0.01695250015434512</v>
       </c>
       <c r="F13">
-        <v>-0.04766142254220246</v>
+        <v>-0.04801954280717539</v>
       </c>
       <c r="G13">
-        <v>-0.007540475148709355</v>
+        <v>0.0009273332437192799</v>
       </c>
       <c r="H13">
-        <v>-0.08298914380080111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.02166254473500808</v>
+      </c>
+      <c r="I13">
+        <v>0.01464684746154326</v>
+      </c>
+      <c r="J13">
+        <v>0.01228063394506135</v>
+      </c>
+      <c r="K13">
+        <v>-0.04452691623544192</v>
+      </c>
+      <c r="L13">
+        <v>0.02259056229142849</v>
+      </c>
+      <c r="M13">
+        <v>-0.01762517983439598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.0545246099750027</v>
+        <v>-0.03889458145427599</v>
       </c>
       <c r="C14">
-        <v>-0.022047816963231</v>
+        <v>-0.02754472361314851</v>
       </c>
       <c r="D14">
-        <v>-0.01718243874383794</v>
+        <v>0.01607788933085253</v>
       </c>
       <c r="E14">
-        <v>-0.02868184396907747</v>
+        <v>0.01045650457225817</v>
       </c>
       <c r="F14">
-        <v>0.01241190507272814</v>
+        <v>-0.07168509275448924</v>
       </c>
       <c r="G14">
-        <v>0.01633943926564291</v>
+        <v>0.007724803385097602</v>
       </c>
       <c r="H14">
-        <v>0.00234258493999138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02655707287354531</v>
+      </c>
+      <c r="I14">
+        <v>-0.0008363174802006175</v>
+      </c>
+      <c r="J14">
+        <v>-0.03352252294336815</v>
+      </c>
+      <c r="K14">
+        <v>-0.09548221824935112</v>
+      </c>
+      <c r="L14">
+        <v>-0.01649374654550138</v>
+      </c>
+      <c r="M14">
+        <v>-0.01405520694136793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03887137008621298</v>
+        <v>-0.02452980646748906</v>
       </c>
       <c r="C15">
-        <v>0.007642954981280321</v>
+        <v>-0.01170135010422676</v>
       </c>
       <c r="D15">
-        <v>-0.0006364207627500762</v>
+        <v>-0.05370379019642758</v>
       </c>
       <c r="E15">
-        <v>-0.0240213631216</v>
+        <v>0.007393366960594125</v>
       </c>
       <c r="F15">
-        <v>-0.01916799797830057</v>
+        <v>-0.01073491490047902</v>
       </c>
       <c r="G15">
-        <v>0.01179135781192784</v>
+        <v>-0.03401994657781326</v>
       </c>
       <c r="H15">
-        <v>0.03068422273668639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.01218335190714715</v>
+      </c>
+      <c r="I15">
+        <v>0.005987011034894432</v>
+      </c>
+      <c r="J15">
+        <v>-0.04032654418894227</v>
+      </c>
+      <c r="K15">
+        <v>-0.07496886664789583</v>
+      </c>
+      <c r="L15">
+        <v>0.01215390753282063</v>
+      </c>
+      <c r="M15">
+        <v>0.00104893572745012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06896910431816021</v>
+        <v>-0.07212593793018585</v>
       </c>
       <c r="C16">
-        <v>-0.0750261062234428</v>
+        <v>-0.07494313002534143</v>
       </c>
       <c r="D16">
-        <v>-0.01752759816835564</v>
+        <v>0.02274105485002064</v>
       </c>
       <c r="E16">
-        <v>-0.02499554773148253</v>
+        <v>0.01817979580971798</v>
       </c>
       <c r="F16">
-        <v>-0.0241265238656364</v>
+        <v>-0.117552883916822</v>
       </c>
       <c r="G16">
-        <v>-0.07630517258836916</v>
+        <v>0.00201367239539516</v>
       </c>
       <c r="H16">
-        <v>-0.09109616824697256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.03306102506752204</v>
+      </c>
+      <c r="I16">
+        <v>-0.04052007117211695</v>
+      </c>
+      <c r="J16">
+        <v>0.08696319427353839</v>
+      </c>
+      <c r="K16">
+        <v>0.01554741508428503</v>
+      </c>
+      <c r="L16">
+        <v>-0.05515073215359177</v>
+      </c>
+      <c r="M16">
+        <v>0.1147944833014311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.0463881676992209</v>
+        <v>-0.04320448386604595</v>
       </c>
       <c r="C20">
-        <v>-0.04071402848539383</v>
+        <v>-0.03178437929332343</v>
       </c>
       <c r="D20">
-        <v>-0.009591673236542636</v>
+        <v>-0.01870664192778717</v>
       </c>
       <c r="E20">
-        <v>-0.009373565157019759</v>
+        <v>0.02054880514545965</v>
       </c>
       <c r="F20">
-        <v>-0.008467582921941939</v>
+        <v>-0.07326237553204387</v>
       </c>
       <c r="G20">
-        <v>-0.02321882950672183</v>
+        <v>0.02159198185193009</v>
       </c>
       <c r="H20">
-        <v>-0.05289285830453661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01134382200458979</v>
+      </c>
+      <c r="I20">
+        <v>0.02464134576713553</v>
+      </c>
+      <c r="J20">
+        <v>0.004760317304862195</v>
+      </c>
+      <c r="K20">
+        <v>-0.06415821988364045</v>
+      </c>
+      <c r="L20">
+        <v>-0.02513966661539645</v>
+      </c>
+      <c r="M20">
+        <v>0.002234896110525068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02487725852398094</v>
+        <v>-0.02312828614917917</v>
       </c>
       <c r="C21">
-        <v>-0.0333683994770482</v>
+        <v>-0.02614803045387794</v>
       </c>
       <c r="D21">
-        <v>0.00534603048181967</v>
+        <v>-0.004171187755681731</v>
       </c>
       <c r="E21">
-        <v>-0.05584414578100765</v>
+        <v>0.01398534018984159</v>
       </c>
       <c r="F21">
-        <v>0.07894578794742362</v>
+        <v>-0.06962392871761407</v>
       </c>
       <c r="G21">
-        <v>0.02451416662042747</v>
+        <v>-0.05588855719146571</v>
       </c>
       <c r="H21">
-        <v>0.1174696939887934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.1160951699935601</v>
+      </c>
+      <c r="I21">
+        <v>0.02880980114621684</v>
+      </c>
+      <c r="J21">
+        <v>-0.0155927943160363</v>
+      </c>
+      <c r="K21">
+        <v>-0.1297719955649415</v>
+      </c>
+      <c r="L21">
+        <v>0.05858630634238746</v>
+      </c>
+      <c r="M21">
+        <v>0.04946745065610212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.02452734125293764</v>
+        <v>-0.04688133069931229</v>
       </c>
       <c r="C22">
-        <v>-0.04125355580909627</v>
+        <v>-0.02480093822606558</v>
       </c>
       <c r="D22">
-        <v>0.05214704573705022</v>
+        <v>-0.6441473308921483</v>
       </c>
       <c r="E22">
-        <v>-0.5293289950914403</v>
+        <v>0.1244709079695572</v>
       </c>
       <c r="F22">
-        <v>-0.2491443450412739</v>
+        <v>0.05266951751375065</v>
       </c>
       <c r="G22">
-        <v>0.1041524311667695</v>
+        <v>0.1442161738795962</v>
       </c>
       <c r="H22">
-        <v>0.2225221057394125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.09387149682489211</v>
+      </c>
+      <c r="I22">
+        <v>-0.006792608243464521</v>
+      </c>
+      <c r="J22">
+        <v>0.01258901210310478</v>
+      </c>
+      <c r="K22">
+        <v>0.04813413070822179</v>
+      </c>
+      <c r="L22">
+        <v>0.008810855355115272</v>
+      </c>
+      <c r="M22">
+        <v>-0.003098441355178859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.02463124261434173</v>
+        <v>-0.04732119532770911</v>
       </c>
       <c r="C23">
-        <v>-0.04112272914683601</v>
+        <v>-0.02555432273110616</v>
       </c>
       <c r="D23">
-        <v>0.05110463562672925</v>
+        <v>-0.6459182513884102</v>
       </c>
       <c r="E23">
-        <v>-0.5290091736948531</v>
+        <v>0.1247474228142666</v>
       </c>
       <c r="F23">
-        <v>-0.2494221150604329</v>
+        <v>0.0498885627482335</v>
       </c>
       <c r="G23">
-        <v>0.1056960185659562</v>
+        <v>0.1448064952635082</v>
       </c>
       <c r="H23">
-        <v>0.2224299192635861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.09106405561853398</v>
+      </c>
+      <c r="I23">
+        <v>-0.004186495303247335</v>
+      </c>
+      <c r="J23">
+        <v>0.0109042444796632</v>
+      </c>
+      <c r="K23">
+        <v>0.05053104514903572</v>
+      </c>
+      <c r="L23">
+        <v>0.006544412926630526</v>
+      </c>
+      <c r="M23">
+        <v>-0.001811750593050957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07652165943604157</v>
+        <v>-0.07515227367490392</v>
       </c>
       <c r="C24">
-        <v>-0.06166291472715173</v>
+        <v>-0.07050018882323937</v>
       </c>
       <c r="D24">
-        <v>-0.01730596525290248</v>
+        <v>0.0183951410995099</v>
       </c>
       <c r="E24">
-        <v>-0.02877207599629596</v>
+        <v>0.02724237250087163</v>
       </c>
       <c r="F24">
-        <v>0.00335479863545102</v>
+        <v>-0.1172479348742062</v>
       </c>
       <c r="G24">
-        <v>-0.08024303685668516</v>
+        <v>-0.00886581056672507</v>
       </c>
       <c r="H24">
-        <v>-0.07086285086179728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.04351886430610944</v>
+      </c>
+      <c r="I24">
+        <v>-0.0446749976098907</v>
+      </c>
+      <c r="J24">
+        <v>0.07285398527358511</v>
+      </c>
+      <c r="K24">
+        <v>0.04392536897138895</v>
+      </c>
+      <c r="L24">
+        <v>-0.04811192471121123</v>
+      </c>
+      <c r="M24">
+        <v>0.09819091590508305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06626514840168571</v>
+        <v>-0.07426322471963114</v>
       </c>
       <c r="C25">
-        <v>-0.03206430325676385</v>
+        <v>-0.04918429102578461</v>
       </c>
       <c r="D25">
-        <v>-0.01823476866192943</v>
+        <v>0.03561108902798547</v>
       </c>
       <c r="E25">
-        <v>-0.02238097049535073</v>
+        <v>0.01307910488792582</v>
       </c>
       <c r="F25">
-        <v>0.005847619626513926</v>
+        <v>-0.1182239552234809</v>
       </c>
       <c r="G25">
-        <v>-0.0815802479483332</v>
+        <v>0.000698496436864069</v>
       </c>
       <c r="H25">
-        <v>-0.06954437379359971</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.03138076768177556</v>
+      </c>
+      <c r="I25">
+        <v>-0.04459029394754302</v>
+      </c>
+      <c r="J25">
+        <v>0.07319231576386684</v>
+      </c>
+      <c r="K25">
+        <v>0.0414879422583173</v>
+      </c>
+      <c r="L25">
+        <v>-0.06609892657851202</v>
+      </c>
+      <c r="M25">
+        <v>0.1055417125753088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.05107781474713974</v>
+        <v>-0.0422612632241356</v>
       </c>
       <c r="C26">
-        <v>-0.04021743295068535</v>
+        <v>-0.01613342122033695</v>
       </c>
       <c r="D26">
-        <v>-0.0343923310129629</v>
+        <v>-0.007278933766310683</v>
       </c>
       <c r="E26">
-        <v>-0.001322538912656338</v>
+        <v>0.008131721784676301</v>
       </c>
       <c r="F26">
-        <v>-0.02026950266221526</v>
+        <v>-0.05042198534189681</v>
       </c>
       <c r="G26">
-        <v>0.01232544329543247</v>
+        <v>0.01960664690816322</v>
       </c>
       <c r="H26">
-        <v>-0.01875146846135126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01443211530279052</v>
+      </c>
+      <c r="I26">
+        <v>-0.002574071704305881</v>
+      </c>
+      <c r="J26">
+        <v>-0.03248571572889743</v>
+      </c>
+      <c r="K26">
+        <v>-0.1174465708564202</v>
+      </c>
+      <c r="L26">
+        <v>0.03104392896147359</v>
+      </c>
+      <c r="M26">
+        <v>0.03373915458112688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09052534915893287</v>
+        <v>-0.144109561799193</v>
       </c>
       <c r="C28">
-        <v>0.2926616994563686</v>
+        <v>0.2862318694668505</v>
       </c>
       <c r="D28">
-        <v>-0.06984354303323934</v>
+        <v>0.007144190304859271</v>
       </c>
       <c r="E28">
-        <v>-0.008515568998293074</v>
+        <v>0.0085194853984943</v>
       </c>
       <c r="F28">
-        <v>0.03534067516671684</v>
+        <v>-0.005811473156028881</v>
       </c>
       <c r="G28">
-        <v>-0.004026835959805241</v>
+        <v>-0.003415718168148477</v>
       </c>
       <c r="H28">
-        <v>0.03508069832728856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01497664439624186</v>
+      </c>
+      <c r="I28">
+        <v>0.02272849524480022</v>
+      </c>
+      <c r="J28">
+        <v>0.01714873229558684</v>
+      </c>
+      <c r="K28">
+        <v>-0.01234434413367025</v>
+      </c>
+      <c r="L28">
+        <v>0.01621918403019809</v>
+      </c>
+      <c r="M28">
+        <v>-0.01417369357340655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05460714861285705</v>
+        <v>-0.03924901733263933</v>
       </c>
       <c r="C29">
-        <v>-0.01632250590924202</v>
+        <v>-0.0262210171768168</v>
       </c>
       <c r="D29">
-        <v>-0.008479058787135332</v>
+        <v>0.008368481829332848</v>
       </c>
       <c r="E29">
-        <v>-0.03225792060834371</v>
+        <v>0.01151487537109602</v>
       </c>
       <c r="F29">
-        <v>-0.01956461862835257</v>
+        <v>-0.07375046551027975</v>
       </c>
       <c r="G29">
-        <v>0.009197590259277444</v>
+        <v>0.02366924453477033</v>
       </c>
       <c r="H29">
-        <v>0.02421151607158531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.004713305524449533</v>
+      </c>
+      <c r="I29">
+        <v>0.01148805181251767</v>
+      </c>
+      <c r="J29">
+        <v>-0.02751825375237918</v>
+      </c>
+      <c r="K29">
+        <v>-0.0931964921550336</v>
+      </c>
+      <c r="L29">
+        <v>-0.008823552649064315</v>
+      </c>
+      <c r="M29">
+        <v>0.007059057832329169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.122114377219492</v>
+        <v>-0.1062686748473244</v>
       </c>
       <c r="C30">
-        <v>-0.0403697984467181</v>
+        <v>-0.06503146864164561</v>
       </c>
       <c r="D30">
-        <v>-0.04918124286994296</v>
+        <v>0.001362089256246447</v>
       </c>
       <c r="E30">
-        <v>-0.09962752615324555</v>
+        <v>-0.00166483387797063</v>
       </c>
       <c r="F30">
-        <v>0.06187509734365716</v>
+        <v>-0.229648832512848</v>
       </c>
       <c r="G30">
-        <v>-0.167171405474238</v>
+        <v>0.1486288068536618</v>
       </c>
       <c r="H30">
-        <v>0.004922495004625683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1883035960717032</v>
+      </c>
+      <c r="I30">
+        <v>0.1649486336535745</v>
+      </c>
+      <c r="J30">
+        <v>0.03513237394984998</v>
+      </c>
+      <c r="K30">
+        <v>-0.009364694443436317</v>
+      </c>
+      <c r="L30">
+        <v>-0.04189499016049629</v>
+      </c>
+      <c r="M30">
+        <v>-0.5587605915587714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05155867281645488</v>
+        <v>-0.03754870086905537</v>
       </c>
       <c r="C31">
-        <v>-0.02075824709190123</v>
+        <v>-0.04789758401238603</v>
       </c>
       <c r="D31">
-        <v>0.01103107425685986</v>
+        <v>-0.001745641990589745</v>
       </c>
       <c r="E31">
-        <v>-0.001849825824773515</v>
+        <v>0.002900720601649699</v>
       </c>
       <c r="F31">
-        <v>-0.0239351202561387</v>
+        <v>-0.02663499159949271</v>
       </c>
       <c r="G31">
-        <v>0.03293047096401944</v>
+        <v>0.009448076318005847</v>
       </c>
       <c r="H31">
-        <v>-0.03152001450624942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.0438454283415458</v>
+      </c>
+      <c r="I31">
+        <v>-0.007123047526101275</v>
+      </c>
+      <c r="J31">
+        <v>-0.002114149490783811</v>
+      </c>
+      <c r="K31">
+        <v>-0.02577081348606809</v>
+      </c>
+      <c r="L31">
+        <v>-0.03459518571101968</v>
+      </c>
+      <c r="M31">
+        <v>0.002253599441428869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02261064803949936</v>
+        <v>-0.04341457611034105</v>
       </c>
       <c r="C32">
-        <v>0.01397481294359978</v>
+        <v>-0.001530396708558881</v>
       </c>
       <c r="D32">
-        <v>-0.002196826553854941</v>
+        <v>0.01216082918304452</v>
       </c>
       <c r="E32">
-        <v>-0.07603642285618881</v>
+        <v>-0.02935823610071255</v>
       </c>
       <c r="F32">
-        <v>-0.1007423174257192</v>
+        <v>-0.08556220568395126</v>
       </c>
       <c r="G32">
-        <v>-0.05906750849889768</v>
+        <v>-0.01680502368965293</v>
       </c>
       <c r="H32">
-        <v>-0.0354030988517646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03043238107219463</v>
+      </c>
+      <c r="I32">
+        <v>-0.04416416974580742</v>
+      </c>
+      <c r="J32">
+        <v>0.0172468659092526</v>
+      </c>
+      <c r="K32">
+        <v>-0.05858379865900603</v>
+      </c>
+      <c r="L32">
+        <v>-0.001163577166962571</v>
+      </c>
+      <c r="M32">
+        <v>-0.131505781124795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.117161792898075</v>
+        <v>-0.09552413644591946</v>
       </c>
       <c r="C33">
-        <v>-0.03930030722537873</v>
+        <v>-0.06002831607622459</v>
       </c>
       <c r="D33">
-        <v>-0.00615647840894573</v>
+        <v>0.02347870727410739</v>
       </c>
       <c r="E33">
-        <v>-0.01430896830163154</v>
+        <v>0.01083881892210213</v>
       </c>
       <c r="F33">
-        <v>-0.05358900168782005</v>
+        <v>-0.07890284178816971</v>
       </c>
       <c r="G33">
-        <v>-0.02807874661830838</v>
+        <v>0.01462683441563688</v>
       </c>
       <c r="H33">
-        <v>-0.03493469561611485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.002407054106508748</v>
+      </c>
+      <c r="I33">
+        <v>-0.01884048864702138</v>
+      </c>
+      <c r="J33">
+        <v>-0.02105350578576761</v>
+      </c>
+      <c r="K33">
+        <v>-0.02083294883802358</v>
+      </c>
+      <c r="L33">
+        <v>-0.007729617860571407</v>
+      </c>
+      <c r="M33">
+        <v>-0.00677058564884979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05343932592400658</v>
+        <v>-0.06244047959590181</v>
       </c>
       <c r="C34">
-        <v>-0.06327121411798828</v>
+        <v>-0.06192661876286972</v>
       </c>
       <c r="D34">
-        <v>-0.003600064749318735</v>
+        <v>0.0277235620860846</v>
       </c>
       <c r="E34">
-        <v>-0.007411537621067436</v>
+        <v>0.01524990125364852</v>
       </c>
       <c r="F34">
-        <v>0.002079027003287439</v>
+        <v>-0.1084275702732504</v>
       </c>
       <c r="G34">
-        <v>-0.05917163237444586</v>
+        <v>-0.00538958961042816</v>
       </c>
       <c r="H34">
-        <v>-0.05521561464862111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.02439038383089214</v>
+      </c>
+      <c r="I34">
+        <v>-0.03707758961321469</v>
+      </c>
+      <c r="J34">
+        <v>0.07892725242183421</v>
+      </c>
+      <c r="K34">
+        <v>-0.01373803152062575</v>
+      </c>
+      <c r="L34">
+        <v>-0.04496089826741951</v>
+      </c>
+      <c r="M34">
+        <v>0.1123148476317579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04396668746587718</v>
+        <v>-0.02372689090999546</v>
       </c>
       <c r="C35">
-        <v>-0.03216722757700061</v>
+        <v>-0.02454243641130124</v>
       </c>
       <c r="D35">
-        <v>0.009479777711991389</v>
+        <v>0.002709350256491672</v>
       </c>
       <c r="E35">
-        <v>-0.01369246310524865</v>
+        <v>-0.004510529256530617</v>
       </c>
       <c r="F35">
-        <v>0.01793672781469247</v>
+        <v>-0.0391929630984563</v>
       </c>
       <c r="G35">
-        <v>-0.008744883157294613</v>
+        <v>0.01591538978841212</v>
       </c>
       <c r="H35">
-        <v>-0.05565536976344101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01949711305653297</v>
+      </c>
+      <c r="I35">
+        <v>0.0001780685456519296</v>
+      </c>
+      <c r="J35">
+        <v>0.04460211585353793</v>
+      </c>
+      <c r="K35">
+        <v>-0.07229839258102684</v>
+      </c>
+      <c r="L35">
+        <v>-0.02185853671734404</v>
+      </c>
+      <c r="M35">
+        <v>0.000653501845316241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03379745512467294</v>
+        <v>-0.02679771275679352</v>
       </c>
       <c r="C36">
-        <v>-0.01719911699372894</v>
+        <v>-0.0156563905757505</v>
       </c>
       <c r="D36">
-        <v>-0.02363812858881313</v>
+        <v>-0.009613609597487558</v>
       </c>
       <c r="E36">
-        <v>-0.0289690155897892</v>
+        <v>0.01487108252021641</v>
       </c>
       <c r="F36">
-        <v>-0.0203153648725373</v>
+        <v>-0.06708393521859951</v>
       </c>
       <c r="G36">
-        <v>-0.01295138420603081</v>
+        <v>0.01039582797998153</v>
       </c>
       <c r="H36">
-        <v>-0.04512057397250904</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.009885246875735325</v>
+      </c>
+      <c r="I36">
+        <v>0.0103044457975222</v>
+      </c>
+      <c r="J36">
+        <v>-0.03524880238810579</v>
+      </c>
+      <c r="K36">
+        <v>-0.0335767531325403</v>
+      </c>
+      <c r="L36">
+        <v>-0.01604421902948031</v>
+      </c>
+      <c r="M36">
+        <v>0.04799030387547917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04737471330690538</v>
+        <v>-0.02792496513218718</v>
       </c>
       <c r="C38">
-        <v>-0.03755860955055065</v>
+        <v>-0.04601098055914411</v>
       </c>
       <c r="D38">
-        <v>-0.001759005074199043</v>
+        <v>-0.01752766497357977</v>
       </c>
       <c r="E38">
-        <v>-0.02324238292904791</v>
+        <v>0.02055768543937628</v>
       </c>
       <c r="F38">
-        <v>-0.02991495524091271</v>
+        <v>0.04753188187945146</v>
       </c>
       <c r="G38">
-        <v>-0.03337381988187101</v>
+        <v>0.0485152404999551</v>
       </c>
       <c r="H38">
-        <v>0.02761238249832375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.004250469195317493</v>
+      </c>
+      <c r="I38">
+        <v>-0.007803149628485523</v>
+      </c>
+      <c r="J38">
+        <v>-0.002473607052722965</v>
+      </c>
+      <c r="K38">
+        <v>-0.0551333754001069</v>
+      </c>
+      <c r="L38">
+        <v>0.1095789554288017</v>
+      </c>
+      <c r="M38">
+        <v>-0.08363856064691377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.102487660276933</v>
+        <v>-0.1043382297352917</v>
       </c>
       <c r="C39">
-        <v>-0.07406599003740011</v>
+        <v>-0.08942972163770753</v>
       </c>
       <c r="D39">
-        <v>0.001940321420578979</v>
+        <v>0.0886282351152312</v>
       </c>
       <c r="E39">
-        <v>-0.02126394425540882</v>
+        <v>-0.01801593429339533</v>
       </c>
       <c r="F39">
-        <v>0.00278660532244125</v>
+        <v>-0.1574398048710517</v>
       </c>
       <c r="G39">
-        <v>-0.1159440050324029</v>
+        <v>0.09339963243009201</v>
       </c>
       <c r="H39">
-        <v>-0.07467063705255123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.07222870526829248</v>
+      </c>
+      <c r="I39">
+        <v>-0.01577278196859562</v>
+      </c>
+      <c r="J39">
+        <v>0.2038117730295797</v>
+      </c>
+      <c r="K39">
+        <v>0.08759979945394361</v>
+      </c>
+      <c r="L39">
+        <v>-0.09842718269575502</v>
+      </c>
+      <c r="M39">
+        <v>-0.004126923990293853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04704279789829322</v>
+        <v>-0.03270430572788176</v>
       </c>
       <c r="C40">
-        <v>-0.02885143586721539</v>
+        <v>-0.06014409209427693</v>
       </c>
       <c r="D40">
-        <v>0.04461390173410634</v>
+        <v>-0.04069956862936135</v>
       </c>
       <c r="E40">
-        <v>-0.1109121227707977</v>
+        <v>0.01182753879391061</v>
       </c>
       <c r="F40">
-        <v>-0.03182313180937969</v>
+        <v>-0.1102037369383542</v>
       </c>
       <c r="G40">
-        <v>-0.1513725183794311</v>
+        <v>-0.02935688475990867</v>
       </c>
       <c r="H40">
-        <v>-0.1575706873225571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.08286151076682935</v>
+      </c>
+      <c r="I40">
+        <v>-0.01151300985464805</v>
+      </c>
+      <c r="J40">
+        <v>-0.02559879865563178</v>
+      </c>
+      <c r="K40">
+        <v>-0.04884689756547417</v>
+      </c>
+      <c r="L40">
+        <v>0.1226149798431713</v>
+      </c>
+      <c r="M40">
+        <v>-0.07704450394050325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04321791109479294</v>
+        <v>-0.03958951633024731</v>
       </c>
       <c r="C41">
-        <v>-0.03932145367384744</v>
+        <v>-0.03711205016289758</v>
       </c>
       <c r="D41">
-        <v>0.001351527283953698</v>
+        <v>0.01696989042063152</v>
       </c>
       <c r="E41">
-        <v>0.01011613666062743</v>
+        <v>9.146493675776801e-05</v>
       </c>
       <c r="F41">
-        <v>-0.01259599684494881</v>
+        <v>-0.0251210330773034</v>
       </c>
       <c r="G41">
-        <v>-0.02671618503691397</v>
+        <v>0.02358163426339925</v>
       </c>
       <c r="H41">
-        <v>-0.03375592698182098</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.002329248514864512</v>
+      </c>
+      <c r="I41">
+        <v>-0.007740615831709239</v>
+      </c>
+      <c r="J41">
+        <v>0.02806863000782208</v>
+      </c>
+      <c r="K41">
+        <v>-0.05223062590271384</v>
+      </c>
+      <c r="L41">
+        <v>0.01264186045003826</v>
+      </c>
+      <c r="M41">
+        <v>0.009176868860236496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.0615596631192969</v>
+        <v>-0.05198047012449127</v>
       </c>
       <c r="C43">
-        <v>-0.03173134512041337</v>
+        <v>-0.042160104789995</v>
       </c>
       <c r="D43">
-        <v>-0.02086746630564852</v>
+        <v>-0.009807376210612128</v>
       </c>
       <c r="E43">
-        <v>-0.02610862714033561</v>
+        <v>0.01881975698081023</v>
       </c>
       <c r="F43">
-        <v>-0.01658534593507759</v>
+        <v>-0.01557867827171144</v>
       </c>
       <c r="G43">
-        <v>-0.00529646064710652</v>
+        <v>0.04974241059876985</v>
       </c>
       <c r="H43">
-        <v>0.006927379326774668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.01210264862235358</v>
+      </c>
+      <c r="I43">
+        <v>0.01742401183412373</v>
+      </c>
+      <c r="J43">
+        <v>0.04375398811251168</v>
+      </c>
+      <c r="K43">
+        <v>-0.03434834468818414</v>
+      </c>
+      <c r="L43">
+        <v>-0.009145819339278665</v>
+      </c>
+      <c r="M43">
+        <v>0.02744709787782198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05339544011860586</v>
+        <v>-0.08497361286428654</v>
       </c>
       <c r="C44">
-        <v>-0.01820493515799215</v>
+        <v>-0.06194968402321645</v>
       </c>
       <c r="D44">
-        <v>-0.08078843484598333</v>
+        <v>-0.06879521321592381</v>
       </c>
       <c r="E44">
-        <v>-0.06638368048318179</v>
+        <v>0.07756003867105495</v>
       </c>
       <c r="F44">
-        <v>-0.005220101942727703</v>
+        <v>-0.177469928372399</v>
       </c>
       <c r="G44">
-        <v>-0.1190840617067917</v>
+        <v>0.0144674713627718</v>
       </c>
       <c r="H44">
-        <v>-0.0678515872816383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.03206564922197841</v>
+      </c>
+      <c r="I44">
+        <v>-0.02845097924451723</v>
+      </c>
+      <c r="J44">
+        <v>0.01392832194637269</v>
+      </c>
+      <c r="K44">
+        <v>-0.04594177491252133</v>
+      </c>
+      <c r="L44">
+        <v>0.05863433997391092</v>
+      </c>
+      <c r="M44">
+        <v>-0.02239446401039599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.03990481119118253</v>
+        <v>-0.03357067222621293</v>
       </c>
       <c r="C46">
-        <v>-0.05092452002842869</v>
+        <v>-0.03926240552504452</v>
       </c>
       <c r="D46">
-        <v>-0.01813205057536249</v>
+        <v>-0.03290205042170323</v>
       </c>
       <c r="E46">
-        <v>-0.0513683539460463</v>
+        <v>0.04231231746055292</v>
       </c>
       <c r="F46">
-        <v>-0.02171785228961874</v>
+        <v>-0.05800459610397077</v>
       </c>
       <c r="G46">
-        <v>-0.004793635865243467</v>
+        <v>0.004732613891473845</v>
       </c>
       <c r="H46">
-        <v>0.009959746656826305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.01464583582978667</v>
+      </c>
+      <c r="I46">
+        <v>-0.03167904877786427</v>
+      </c>
+      <c r="J46">
+        <v>-0.0350796533027306</v>
+      </c>
+      <c r="K46">
+        <v>-0.1161347815359374</v>
+      </c>
+      <c r="L46">
+        <v>-0.01968907237690171</v>
+      </c>
+      <c r="M46">
+        <v>0.0134391575959452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03467396356047094</v>
+        <v>-0.04207446019072186</v>
       </c>
       <c r="C47">
-        <v>-0.01325567934466347</v>
+        <v>-0.02729302994735565</v>
       </c>
       <c r="D47">
-        <v>-0.003403154344649763</v>
+        <v>-0.01611232292900144</v>
       </c>
       <c r="E47">
-        <v>-0.06556116216471553</v>
+        <v>0.01525201491856395</v>
       </c>
       <c r="F47">
-        <v>-0.02545893791506439</v>
+        <v>-0.03588500928083614</v>
       </c>
       <c r="G47">
-        <v>0.008984099662550043</v>
+        <v>0.009123137354986304</v>
       </c>
       <c r="H47">
-        <v>-0.01632062861249682</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.004952680202085479</v>
+      </c>
+      <c r="I47">
+        <v>0.0213564079659026</v>
+      </c>
+      <c r="J47">
+        <v>-0.01926922086774824</v>
+      </c>
+      <c r="K47">
+        <v>-0.05286826656081849</v>
+      </c>
+      <c r="L47">
+        <v>0.00415926385642923</v>
+      </c>
+      <c r="M47">
+        <v>0.05130802561815041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.04144597110464627</v>
+        <v>-0.04251298727934583</v>
       </c>
       <c r="C48">
-        <v>-0.02447789565112188</v>
+        <v>-0.01995903991730073</v>
       </c>
       <c r="D48">
-        <v>0.002882835224655146</v>
+        <v>-0.007401958675307297</v>
       </c>
       <c r="E48">
-        <v>-0.05060142974803312</v>
+        <v>0.008526482803585304</v>
       </c>
       <c r="F48">
-        <v>-0.03301989585137988</v>
+        <v>-0.07239595391767542</v>
       </c>
       <c r="G48">
-        <v>0.006614621584570673</v>
+        <v>-0.02148189396065466</v>
       </c>
       <c r="H48">
-        <v>-0.04195785295247834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.02862771852849134</v>
+      </c>
+      <c r="I48">
+        <v>0.009242008251159416</v>
+      </c>
+      <c r="J48">
+        <v>-0.008784014443903757</v>
+      </c>
+      <c r="K48">
+        <v>-0.04357558833059248</v>
+      </c>
+      <c r="L48">
+        <v>-0.04168062591527828</v>
+      </c>
+      <c r="M48">
+        <v>0.04049289180233093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2296350274172156</v>
+        <v>-0.2244367921201791</v>
       </c>
       <c r="C49">
-        <v>-0.1106681685157833</v>
+        <v>-0.0712264517198436</v>
       </c>
       <c r="D49">
-        <v>-0.04032567031885245</v>
+        <v>0.05684587441295673</v>
       </c>
       <c r="E49">
-        <v>0.03018874917226894</v>
+        <v>0.06163807367390046</v>
       </c>
       <c r="F49">
-        <v>0.1808756544840328</v>
+        <v>0.231556214076088</v>
       </c>
       <c r="G49">
-        <v>-0.00263023343268076</v>
+        <v>-0.1074610892742852</v>
       </c>
       <c r="H49">
-        <v>0.1234308114246495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1803076011604453</v>
+      </c>
+      <c r="I49">
+        <v>-0.08846689779554121</v>
+      </c>
+      <c r="J49">
+        <v>0.06747763956996268</v>
+      </c>
+      <c r="K49">
+        <v>0.1588507391145775</v>
+      </c>
+      <c r="L49">
+        <v>0.001034610319732586</v>
+      </c>
+      <c r="M49">
+        <v>0.02167835312084871</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05765951831584289</v>
+        <v>-0.04597621484714397</v>
       </c>
       <c r="C50">
-        <v>-0.02462328072773675</v>
+        <v>-0.03738162956792607</v>
       </c>
       <c r="D50">
-        <v>0.007242342910626506</v>
+        <v>0.0007982633096749438</v>
       </c>
       <c r="E50">
-        <v>-0.02435674720489453</v>
+        <v>-0.002447124646724563</v>
       </c>
       <c r="F50">
-        <v>-0.05908426399373612</v>
+        <v>-0.0484478220372962</v>
       </c>
       <c r="G50">
-        <v>0.03382895758497503</v>
+        <v>0.0299491387913859</v>
       </c>
       <c r="H50">
-        <v>-0.01430566785047751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03097927595950093</v>
+      </c>
+      <c r="I50">
+        <v>0.001532816849949726</v>
+      </c>
+      <c r="J50">
+        <v>-0.02836341352492336</v>
+      </c>
+      <c r="K50">
+        <v>-0.0380459318852413</v>
+      </c>
+      <c r="L50">
+        <v>-0.02874178726294447</v>
+      </c>
+      <c r="M50">
+        <v>-0.01058681688352692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02445818091895904</v>
+        <v>-0.02564443719603983</v>
       </c>
       <c r="C51">
-        <v>-0.0114433254316913</v>
+        <v>-0.004799928674859134</v>
       </c>
       <c r="D51">
-        <v>-0.00318964388118238</v>
+        <v>0.003508931775844188</v>
       </c>
       <c r="E51">
-        <v>0.01025511463408582</v>
+        <v>0.0196731662225894</v>
       </c>
       <c r="F51">
-        <v>0.002019240208010655</v>
+        <v>0.02413021178249721</v>
       </c>
       <c r="G51">
-        <v>-0.01850639911666113</v>
+        <v>-0.003052860180402285</v>
       </c>
       <c r="H51">
-        <v>-0.001885219581213006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.008055153395816686</v>
+      </c>
+      <c r="I51">
+        <v>-0.002305379313928254</v>
+      </c>
+      <c r="J51">
+        <v>0.05185179180962761</v>
+      </c>
+      <c r="K51">
+        <v>0.04253025402043763</v>
+      </c>
+      <c r="L51">
+        <v>-0.01884872449869797</v>
+      </c>
+      <c r="M51">
+        <v>0.01639979048147755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.04392757978708609</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.0204519959098915</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.009050697160031294</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02633785285693646</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02033875306728101</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.059764827812414</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01269236984607655</v>
+      </c>
+      <c r="I52">
+        <v>-0.02039249598428905</v>
+      </c>
+      <c r="J52">
+        <v>-0.03589524940598831</v>
+      </c>
+      <c r="K52">
+        <v>0.0321660708142587</v>
+      </c>
+      <c r="L52">
+        <v>-0.02502004123260122</v>
+      </c>
+      <c r="M52">
+        <v>-0.04453547008354766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1716000536511791</v>
+        <v>-0.163592792909564</v>
       </c>
       <c r="C53">
-        <v>0.002562172381628351</v>
+        <v>-0.05169358252448646</v>
       </c>
       <c r="D53">
-        <v>-0.02005412610296163</v>
+        <v>0.01118091451996494</v>
       </c>
       <c r="E53">
-        <v>0.1078352783980897</v>
+        <v>-0.01836051439260112</v>
       </c>
       <c r="F53">
-        <v>-0.2186124012185398</v>
+        <v>0.06462250563197462</v>
       </c>
       <c r="G53">
-        <v>0.005951108738335056</v>
+        <v>0.170220107538731</v>
       </c>
       <c r="H53">
-        <v>-0.0800505125482143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1928665345459514</v>
+      </c>
+      <c r="I53">
+        <v>-0.1013236522918207</v>
+      </c>
+      <c r="J53">
+        <v>-0.1133474145379985</v>
+      </c>
+      <c r="K53">
+        <v>0.02635715768516059</v>
+      </c>
+      <c r="L53">
+        <v>0.01203115369934114</v>
+      </c>
+      <c r="M53">
+        <v>-0.07663151458097153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05184686098480966</v>
+        <v>-0.05436576620277712</v>
       </c>
       <c r="C54">
-        <v>-0.02999826133286333</v>
+        <v>-0.04155923320380954</v>
       </c>
       <c r="D54">
-        <v>-0.0240408764801743</v>
+        <v>-0.01288192510150921</v>
       </c>
       <c r="E54">
-        <v>-0.05048698251856964</v>
+        <v>0.01563366625016406</v>
       </c>
       <c r="F54">
-        <v>-0.02325913370225572</v>
+        <v>-0.1370973160273178</v>
       </c>
       <c r="G54">
-        <v>-0.01959344351580121</v>
+        <v>-0.02680953624981829</v>
       </c>
       <c r="H54">
-        <v>-0.01845748707420836</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0239568882267115</v>
+      </c>
+      <c r="I54">
+        <v>0.04299750075251878</v>
+      </c>
+      <c r="J54">
+        <v>-0.03820256408792234</v>
+      </c>
+      <c r="K54">
+        <v>-0.1426643390541026</v>
+      </c>
+      <c r="L54">
+        <v>-0.01218964582771519</v>
+      </c>
+      <c r="M54">
+        <v>0.03458838053505307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09671643657841514</v>
+        <v>-0.08620333895254875</v>
       </c>
       <c r="C55">
-        <v>-0.002748703108965052</v>
+        <v>-0.03821684188554916</v>
       </c>
       <c r="D55">
-        <v>-0.01855890332322473</v>
+        <v>0.03019334669163938</v>
       </c>
       <c r="E55">
-        <v>0.03586104270893212</v>
+        <v>0.004765939668307717</v>
       </c>
       <c r="F55">
-        <v>-0.1805467502916328</v>
+        <v>-0.0001815818992452636</v>
       </c>
       <c r="G55">
-        <v>0.0103085594032347</v>
+        <v>0.09016557259173326</v>
       </c>
       <c r="H55">
-        <v>-0.08040660100528843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1348697112309677</v>
+      </c>
+      <c r="I55">
+        <v>-0.0665279452949208</v>
+      </c>
+      <c r="J55">
+        <v>-0.05893011120712828</v>
+      </c>
+      <c r="K55">
+        <v>-0.005544186133708475</v>
+      </c>
+      <c r="L55">
+        <v>0.0006572279933160996</v>
+      </c>
+      <c r="M55">
+        <v>0.03336875944738456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1706469711740302</v>
+        <v>-0.152686990402248</v>
       </c>
       <c r="C56">
-        <v>-0.006232092181824541</v>
+        <v>-0.06589611986984224</v>
       </c>
       <c r="D56">
-        <v>-0.01923421977470333</v>
+        <v>0.03664749736478985</v>
       </c>
       <c r="E56">
-        <v>0.09730305988588105</v>
+        <v>0.01804021059791818</v>
       </c>
       <c r="F56">
-        <v>-0.2249735359406609</v>
+        <v>0.04000490325974481</v>
       </c>
       <c r="G56">
-        <v>0.04322086742259706</v>
+        <v>0.1607210472845575</v>
       </c>
       <c r="H56">
-        <v>-0.0842389460939862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1745797675428605</v>
+      </c>
+      <c r="I56">
+        <v>-0.09991460227021259</v>
+      </c>
+      <c r="J56">
+        <v>-0.09204079171351924</v>
+      </c>
+      <c r="K56">
+        <v>0.0243038393344295</v>
+      </c>
+      <c r="L56">
+        <v>0.0486267667157062</v>
+      </c>
+      <c r="M56">
+        <v>-0.01045401748159885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02316529952618123</v>
+        <v>-0.04299385514836168</v>
       </c>
       <c r="C58">
-        <v>-0.04531977799228108</v>
+        <v>-0.03786976077248573</v>
       </c>
       <c r="D58">
-        <v>0.02698262895863675</v>
+        <v>-0.08410835198249464</v>
       </c>
       <c r="E58">
-        <v>-0.4024695380113252</v>
+        <v>0.01767345843576142</v>
       </c>
       <c r="F58">
-        <v>0.3280947362736276</v>
+        <v>-0.03984930752031708</v>
       </c>
       <c r="G58">
-        <v>0.1978614656057464</v>
+        <v>0.03189900365547134</v>
       </c>
       <c r="H58">
-        <v>-0.6911744771510776</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1478651799490666</v>
+      </c>
+      <c r="I58">
+        <v>0.06162608436385245</v>
+      </c>
+      <c r="J58">
+        <v>0.1715577586680895</v>
+      </c>
+      <c r="K58">
+        <v>-0.0345238410753986</v>
+      </c>
+      <c r="L58">
+        <v>-0.4376389894221683</v>
+      </c>
+      <c r="M58">
+        <v>0.06907250803308179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.190967299872161</v>
+        <v>-0.2215541272523988</v>
       </c>
       <c r="C59">
-        <v>0.4096949403168802</v>
+        <v>0.295933562234391</v>
       </c>
       <c r="D59">
-        <v>-0.08486575514756479</v>
+        <v>0.0419512187284968</v>
       </c>
       <c r="E59">
-        <v>0.0008656659503127101</v>
+        <v>-0.006436011718163048</v>
       </c>
       <c r="F59">
-        <v>-0.04434038688830601</v>
+        <v>-0.02078097458266325</v>
       </c>
       <c r="G59">
-        <v>-0.07775152068719601</v>
+        <v>-0.002348886545168182</v>
       </c>
       <c r="H59">
-        <v>-0.02208196570437078</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1273257383041571</v>
+      </c>
+      <c r="I59">
+        <v>-0.01927625570528298</v>
+      </c>
+      <c r="J59">
+        <v>0.05479200214497918</v>
+      </c>
+      <c r="K59">
+        <v>0.07725975063938023</v>
+      </c>
+      <c r="L59">
+        <v>0.0839884682242508</v>
+      </c>
+      <c r="M59">
+        <v>-0.02306583400095857</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2676596298946439</v>
+        <v>-0.2414335690477928</v>
       </c>
       <c r="C60">
-        <v>-0.06417411637863091</v>
+        <v>-0.1181891505421812</v>
       </c>
       <c r="D60">
-        <v>-0.08061346755528664</v>
+        <v>0.06895408282023333</v>
       </c>
       <c r="E60">
-        <v>0.02361499001489979</v>
+        <v>0.04922447900825791</v>
       </c>
       <c r="F60">
-        <v>0.0720264202854019</v>
+        <v>0.1349216858022594</v>
       </c>
       <c r="G60">
-        <v>0.05385242754956533</v>
+        <v>-0.03685374812197491</v>
       </c>
       <c r="H60">
-        <v>0.1598284548553642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.0710196940955676</v>
+      </c>
+      <c r="I60">
+        <v>0.05093917860875134</v>
+      </c>
+      <c r="J60">
+        <v>-0.1161977817805259</v>
+      </c>
+      <c r="K60">
+        <v>0.2368955065053856</v>
+      </c>
+      <c r="L60">
+        <v>-0.02758510510553919</v>
+      </c>
+      <c r="M60">
+        <v>-0.08101167915799184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08867726078130876</v>
+        <v>-0.1028998636003276</v>
       </c>
       <c r="C61">
-        <v>-0.0451074578846923</v>
+        <v>-0.06176403991859047</v>
       </c>
       <c r="D61">
-        <v>-0.007186198662397088</v>
+        <v>0.05189655450440983</v>
       </c>
       <c r="E61">
-        <v>0.00723352543847182</v>
+        <v>0.01016084063900705</v>
       </c>
       <c r="F61">
-        <v>-0.0076357534391836</v>
+        <v>-0.1393770249603344</v>
       </c>
       <c r="G61">
-        <v>-0.04245814365007368</v>
+        <v>0.08805053388341436</v>
       </c>
       <c r="H61">
-        <v>-0.03593918214308414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01671812995366525</v>
+      </c>
+      <c r="I61">
+        <v>-0.03441865373191281</v>
+      </c>
+      <c r="J61">
+        <v>0.1098158711657828</v>
+      </c>
+      <c r="K61">
+        <v>-0.003344908623051641</v>
+      </c>
+      <c r="L61">
+        <v>-0.04296672167405175</v>
+      </c>
+      <c r="M61">
+        <v>0.008014086791514163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1581010348570079</v>
+        <v>-0.1439825651359364</v>
       </c>
       <c r="C62">
-        <v>-0.02682761984448747</v>
+        <v>-0.06662999794835407</v>
       </c>
       <c r="D62">
-        <v>0.02092576110564797</v>
+        <v>0.03324031280878131</v>
       </c>
       <c r="E62">
-        <v>0.1686132986811234</v>
+        <v>-0.01815180957304812</v>
       </c>
       <c r="F62">
-        <v>-0.2029704377963294</v>
+        <v>0.05179057891736766</v>
       </c>
       <c r="G62">
-        <v>-0.01724243092320324</v>
+        <v>0.1152622652002775</v>
       </c>
       <c r="H62">
-        <v>-0.05961632780478579</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1552342484464955</v>
+      </c>
+      <c r="I62">
+        <v>-0.123520925573561</v>
+      </c>
+      <c r="J62">
+        <v>-0.1377692776625772</v>
+      </c>
+      <c r="K62">
+        <v>-0.02092183999496486</v>
+      </c>
+      <c r="L62">
+        <v>0.05071574233596483</v>
+      </c>
+      <c r="M62">
+        <v>0.04371039543573281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03911378392645919</v>
+        <v>-0.04433617033960206</v>
       </c>
       <c r="C63">
-        <v>-0.03023800046070219</v>
+        <v>-0.03017632510348842</v>
       </c>
       <c r="D63">
-        <v>0.004031659589872359</v>
+        <v>0.004903147005853837</v>
       </c>
       <c r="E63">
-        <v>-0.0003137133103857837</v>
+        <v>-0.01205944290005396</v>
       </c>
       <c r="F63">
-        <v>-0.01312421910205246</v>
+        <v>-0.07191702929637306</v>
       </c>
       <c r="G63">
-        <v>-0.001578172325809045</v>
+        <v>-0.002921957981048812</v>
       </c>
       <c r="H63">
-        <v>-0.0152275125025597</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.009531761432784752</v>
+      </c>
+      <c r="I63">
+        <v>0.002505554276724181</v>
+      </c>
+      <c r="J63">
+        <v>0.001441445157898687</v>
+      </c>
+      <c r="K63">
+        <v>-0.0308121586755898</v>
+      </c>
+      <c r="L63">
+        <v>-0.04015024651058369</v>
+      </c>
+      <c r="M63">
+        <v>0.02389228550207961</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1069323094521206</v>
+        <v>-0.09869499934304649</v>
       </c>
       <c r="C64">
-        <v>-0.02918838543514696</v>
+        <v>-0.04649676764269221</v>
       </c>
       <c r="D64">
-        <v>-0.04051977502365378</v>
+        <v>0.000204416464366486</v>
       </c>
       <c r="E64">
-        <v>-0.03586226630445039</v>
+        <v>0.03528176409416496</v>
       </c>
       <c r="F64">
-        <v>0.03139045224342672</v>
+        <v>-0.08137024608626975</v>
       </c>
       <c r="G64">
-        <v>-0.06684157637843101</v>
+        <v>0.02389856839898739</v>
       </c>
       <c r="H64">
-        <v>0.04256068633844248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08232637039017882</v>
+      </c>
+      <c r="I64">
+        <v>0.04350084736387634</v>
+      </c>
+      <c r="J64">
+        <v>0.0311617907821842</v>
+      </c>
+      <c r="K64">
+        <v>0.02087401645936103</v>
+      </c>
+      <c r="L64">
+        <v>0.01291151953397077</v>
+      </c>
+      <c r="M64">
+        <v>-0.05505370316823182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1315285629696648</v>
+        <v>-0.1252339251075611</v>
       </c>
       <c r="C65">
-        <v>-0.04382705992913351</v>
+        <v>-0.05308163844814281</v>
       </c>
       <c r="D65">
-        <v>-0.03410260500408266</v>
+        <v>0.007528340215304488</v>
       </c>
       <c r="E65">
-        <v>-0.09629850432192968</v>
+        <v>-0.02700102354057584</v>
       </c>
       <c r="F65">
-        <v>0.1635242386744897</v>
+        <v>0.02631411020107581</v>
       </c>
       <c r="G65">
-        <v>0.2939627937491697</v>
+        <v>-0.09855734751147205</v>
       </c>
       <c r="H65">
-        <v>0.1456239533856218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.05173543487820726</v>
+      </c>
+      <c r="I65">
+        <v>0.3858350347402854</v>
+      </c>
+      <c r="J65">
+        <v>-0.5173324024055718</v>
+      </c>
+      <c r="K65">
+        <v>0.06767716536586768</v>
+      </c>
+      <c r="L65">
+        <v>-0.3008954760281924</v>
+      </c>
+      <c r="M65">
+        <v>-0.04916509712158656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.163917745496534</v>
+        <v>-0.134718075461471</v>
       </c>
       <c r="C66">
-        <v>-0.09556354756669298</v>
+        <v>-0.1238828944936496</v>
       </c>
       <c r="D66">
-        <v>0.007854118920426196</v>
+        <v>0.1028815057322671</v>
       </c>
       <c r="E66">
-        <v>0.02182293267056182</v>
+        <v>-0.03174759625461034</v>
       </c>
       <c r="F66">
-        <v>-0.00218152873004847</v>
+        <v>-0.1613498478562206</v>
       </c>
       <c r="G66">
-        <v>-0.2311731638319098</v>
+        <v>0.1108080305085605</v>
       </c>
       <c r="H66">
-        <v>-0.1448592392191577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08684708182688121</v>
+      </c>
+      <c r="I66">
+        <v>-0.07287518884739475</v>
+      </c>
+      <c r="J66">
+        <v>0.195083941224474</v>
+      </c>
+      <c r="K66">
+        <v>0.1500073496739708</v>
+      </c>
+      <c r="L66">
+        <v>-0.03183112233390871</v>
+      </c>
+      <c r="M66">
+        <v>-0.09277879806937996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.09037899473535489</v>
+        <v>-0.07625812783197983</v>
       </c>
       <c r="C67">
-        <v>-0.05324853955117052</v>
+        <v>-0.05467493518804303</v>
       </c>
       <c r="D67">
-        <v>-0.02292400050468461</v>
+        <v>-0.01682797778206155</v>
       </c>
       <c r="E67">
-        <v>-0.001517476862463376</v>
+        <v>0.03055932888093142</v>
       </c>
       <c r="F67">
-        <v>-0.02925609746217502</v>
+        <v>0.04589246886025938</v>
       </c>
       <c r="G67">
-        <v>-0.03442675761934204</v>
+        <v>0.05827613995410676</v>
       </c>
       <c r="H67">
-        <v>0.03508695136812405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.03463735562987566</v>
+      </c>
+      <c r="I67">
+        <v>-0.002287367687667152</v>
+      </c>
+      <c r="J67">
+        <v>0.0293076425022144</v>
+      </c>
+      <c r="K67">
+        <v>0.006674982750025408</v>
+      </c>
+      <c r="L67">
+        <v>0.1628808736768443</v>
+      </c>
+      <c r="M67">
+        <v>-0.04929026201682918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.06942984682408078</v>
+        <v>-0.121643240097403</v>
       </c>
       <c r="C68">
-        <v>0.2911590744547529</v>
+        <v>0.2706920321368776</v>
       </c>
       <c r="D68">
-        <v>-0.02950557605787327</v>
+        <v>0.00423859276606083</v>
       </c>
       <c r="E68">
-        <v>-0.02969155708557715</v>
+        <v>-0.02089747026788198</v>
       </c>
       <c r="F68">
-        <v>-0.0273152323935236</v>
+        <v>-0.04115452502514447</v>
       </c>
       <c r="G68">
-        <v>0.03280272531042881</v>
+        <v>0.02225361421225134</v>
       </c>
       <c r="H68">
-        <v>-0.03204626530016052</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.00914915612249472</v>
+      </c>
+      <c r="I68">
+        <v>0.02017972954834487</v>
+      </c>
+      <c r="J68">
+        <v>-0.03373859244341785</v>
+      </c>
+      <c r="K68">
+        <v>-0.005208034175082901</v>
+      </c>
+      <c r="L68">
+        <v>-0.04871923718500755</v>
+      </c>
+      <c r="M68">
+        <v>-0.007204437232918179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03430545805464112</v>
+        <v>-0.04427906361194507</v>
       </c>
       <c r="C69">
-        <v>-0.01793940938877092</v>
+        <v>-0.01884801483853292</v>
       </c>
       <c r="D69">
-        <v>-0.00528508337098096</v>
+        <v>-0.002826142412796849</v>
       </c>
       <c r="E69">
-        <v>-0.006419995620532882</v>
+        <v>0.003915157610707178</v>
       </c>
       <c r="F69">
-        <v>-0.02987487038890175</v>
+        <v>-0.02315706344863483</v>
       </c>
       <c r="G69">
-        <v>-0.03879733557512228</v>
+        <v>0.03455834155305719</v>
       </c>
       <c r="H69">
-        <v>-0.01144248004665265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.003069240551151182</v>
+      </c>
+      <c r="I69">
+        <v>0.009111382610985397</v>
+      </c>
+      <c r="J69">
+        <v>-0.0009299454988423075</v>
+      </c>
+      <c r="K69">
+        <v>-0.02085818340584835</v>
+      </c>
+      <c r="L69">
+        <v>0.01107721925787273</v>
+      </c>
+      <c r="M69">
+        <v>0.05300282238809572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.06263159197443419</v>
+        <v>-0.05398359549561445</v>
       </c>
       <c r="C70">
-        <v>-0.01304182760161652</v>
+        <v>-0.02531355039115618</v>
       </c>
       <c r="D70">
-        <v>-0.03544161054159872</v>
+        <v>0.02943421370903496</v>
       </c>
       <c r="E70">
-        <v>0.004108829960520137</v>
+        <v>0.0186529402058072</v>
       </c>
       <c r="F70">
-        <v>0.08387014342862288</v>
+        <v>-0.03827627436156531</v>
       </c>
       <c r="G70">
-        <v>0.04489987377842784</v>
+        <v>-0.01617566624474861</v>
       </c>
       <c r="H70">
-        <v>0.05678326139031173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02610740973280632</v>
+      </c>
+      <c r="I70">
+        <v>0.1041196465365844</v>
+      </c>
+      <c r="J70">
+        <v>-0.02798983192504484</v>
+      </c>
+      <c r="K70">
+        <v>-0.3181860254047646</v>
+      </c>
+      <c r="L70">
+        <v>0.1928198126554655</v>
+      </c>
+      <c r="M70">
+        <v>-0.09954545116443445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.07881995876177482</v>
+        <v>-0.1381642776989741</v>
       </c>
       <c r="C71">
-        <v>0.2859090563370046</v>
+        <v>0.2805663798950102</v>
       </c>
       <c r="D71">
-        <v>-0.06006117701954701</v>
+        <v>0.01096689359860578</v>
       </c>
       <c r="E71">
-        <v>-0.01439554285275825</v>
+        <v>0.001011614577554115</v>
       </c>
       <c r="F71">
-        <v>0.005621201109541975</v>
+        <v>-0.03388636004065011</v>
       </c>
       <c r="G71">
-        <v>0.01663556130298262</v>
+        <v>0.03550462493879135</v>
       </c>
       <c r="H71">
-        <v>-0.01920071943460347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.01776105216126053</v>
+      </c>
+      <c r="I71">
+        <v>0.009898892923717895</v>
+      </c>
+      <c r="J71">
+        <v>-0.003888306775365168</v>
+      </c>
+      <c r="K71">
+        <v>0.008538333648822553</v>
+      </c>
+      <c r="L71">
+        <v>-0.03143476233726199</v>
+      </c>
+      <c r="M71">
+        <v>-0.001811909808315578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1737610172832555</v>
+        <v>-0.1488049290927495</v>
       </c>
       <c r="C72">
-        <v>0.005476981291903999</v>
+        <v>-0.03185326072621889</v>
       </c>
       <c r="D72">
-        <v>0.2356672868247347</v>
+        <v>-0.01514562437662632</v>
       </c>
       <c r="E72">
-        <v>0.02730214121725047</v>
+        <v>-0.149187949895524</v>
       </c>
       <c r="F72">
-        <v>-0.03139153153923696</v>
+        <v>-0.01177511265199135</v>
       </c>
       <c r="G72">
-        <v>-0.05028246048165374</v>
+        <v>0.03991549009076541</v>
       </c>
       <c r="H72">
-        <v>0.04686773248671133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02896372869735953</v>
+      </c>
+      <c r="I72">
+        <v>0.007346984762822164</v>
+      </c>
+      <c r="J72">
+        <v>-0.1110940212781637</v>
+      </c>
+      <c r="K72">
+        <v>0.09726302955887134</v>
+      </c>
+      <c r="L72">
+        <v>0.001533425804194255</v>
+      </c>
+      <c r="M72">
+        <v>0.01015710182493002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2864129675756127</v>
+        <v>-0.240883828233153</v>
       </c>
       <c r="C73">
-        <v>-0.1560679669537372</v>
+        <v>-0.1416211436686779</v>
       </c>
       <c r="D73">
-        <v>-0.09064000110192055</v>
+        <v>0.1538440065698763</v>
       </c>
       <c r="E73">
-        <v>0.0625197539513435</v>
+        <v>0.1319844346785377</v>
       </c>
       <c r="F73">
-        <v>0.2598742552393117</v>
+        <v>0.46743010949476</v>
       </c>
       <c r="G73">
-        <v>0.127083010868815</v>
+        <v>-0.006491469344060377</v>
       </c>
       <c r="H73">
-        <v>0.005567131412757975</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2915086532639513</v>
+      </c>
+      <c r="I73">
+        <v>0.03779848058122415</v>
+      </c>
+      <c r="J73">
+        <v>0.2147732357751196</v>
+      </c>
+      <c r="K73">
+        <v>0.2140471582964697</v>
+      </c>
+      <c r="L73">
+        <v>-0.08258024479600239</v>
+      </c>
+      <c r="M73">
+        <v>-0.04297357086218862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09627743630008469</v>
+        <v>-0.1015535656367005</v>
       </c>
       <c r="C74">
-        <v>-0.03383687651161722</v>
+        <v>-0.0737959773578942</v>
       </c>
       <c r="D74">
-        <v>-0.006662548805736617</v>
+        <v>0.01096298995278408</v>
       </c>
       <c r="E74">
-        <v>0.03491312659751982</v>
+        <v>-0.006393887927407805</v>
       </c>
       <c r="F74">
-        <v>-0.1019173932518061</v>
+        <v>0.03935433097102657</v>
       </c>
       <c r="G74">
-        <v>0.04782293491181936</v>
+        <v>0.1381321903562453</v>
       </c>
       <c r="H74">
-        <v>-0.06298095915019634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.06104972820629643</v>
+      </c>
+      <c r="I74">
+        <v>-0.04654153943307174</v>
+      </c>
+      <c r="J74">
+        <v>-0.03231683988181491</v>
+      </c>
+      <c r="K74">
+        <v>0.004604796791358882</v>
+      </c>
+      <c r="L74">
+        <v>-0.00686049225149921</v>
+      </c>
+      <c r="M74">
+        <v>0.009353811060092337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09799841032679427</v>
+        <v>-0.09823334976803746</v>
       </c>
       <c r="C75">
-        <v>-0.01741862391301002</v>
+        <v>-0.0533215497677989</v>
       </c>
       <c r="D75">
-        <v>-0.000226509639365487</v>
+        <v>0.007364407859970078</v>
       </c>
       <c r="E75">
-        <v>0.0483681618091128</v>
+        <v>-0.00458222346706611</v>
       </c>
       <c r="F75">
-        <v>-0.1247951588000827</v>
+        <v>0.03234655872569869</v>
       </c>
       <c r="G75">
-        <v>0.03832733430154031</v>
+        <v>0.0625181250214024</v>
       </c>
       <c r="H75">
-        <v>-0.03194580430273885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1172989696016932</v>
+      </c>
+      <c r="I75">
+        <v>-0.04114235439153412</v>
+      </c>
+      <c r="J75">
+        <v>-0.0536021898759154</v>
+      </c>
+      <c r="K75">
+        <v>0.01400594499756487</v>
+      </c>
+      <c r="L75">
+        <v>0.01130845576086596</v>
+      </c>
+      <c r="M75">
+        <v>0.05496610580431919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1391887723390938</v>
+        <v>-0.07588634176086428</v>
       </c>
       <c r="C76">
-        <v>-0.02965241153561362</v>
+        <v>-0.05450399280865317</v>
       </c>
       <c r="D76">
-        <v>-0.01665049370914747</v>
+        <v>0.007435263054891191</v>
       </c>
       <c r="E76">
-        <v>0.03839174592291707</v>
+        <v>0.02351045111646742</v>
       </c>
       <c r="F76">
-        <v>-0.2337977921273843</v>
+        <v>0.06344897247148562</v>
       </c>
       <c r="G76">
-        <v>0.05440687614266467</v>
+        <v>0.09235116073777606</v>
       </c>
       <c r="H76">
-        <v>-0.05736222978449141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1715351491472224</v>
+      </c>
+      <c r="I76">
+        <v>-0.06766186920319089</v>
+      </c>
+      <c r="J76">
+        <v>-0.0177473762037688</v>
+      </c>
+      <c r="K76">
+        <v>-0.0295155876894937</v>
+      </c>
+      <c r="L76">
+        <v>0.02308112901990937</v>
+      </c>
+      <c r="M76">
+        <v>-0.01584179040443088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07934947974197983</v>
+        <v>-0.06899765584248914</v>
       </c>
       <c r="C77">
-        <v>-0.02980202937183761</v>
+        <v>-0.02611788062306573</v>
       </c>
       <c r="D77">
-        <v>-0.02953602986985817</v>
+        <v>0.02860980480590648</v>
       </c>
       <c r="E77">
-        <v>-0.1047224673744583</v>
+        <v>0.0326724744315679</v>
       </c>
       <c r="F77">
-        <v>0.2188727914844195</v>
+        <v>-0.2458453462793039</v>
       </c>
       <c r="G77">
-        <v>-0.6384002666842074</v>
+        <v>-0.07488544462230871</v>
       </c>
       <c r="H77">
-        <v>0.2116555308972044</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1486341654868267</v>
+      </c>
+      <c r="I77">
+        <v>0.2651384881923545</v>
+      </c>
+      <c r="J77">
+        <v>-0.00934413037481158</v>
+      </c>
+      <c r="K77">
+        <v>0.3721652653078897</v>
+      </c>
+      <c r="L77">
+        <v>0.5733263151167044</v>
+      </c>
+      <c r="M77">
+        <v>0.06105879640803928</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1821538657415951</v>
+        <v>-0.1486633139156527</v>
       </c>
       <c r="C78">
-        <v>-0.09655139334071541</v>
+        <v>-0.1075628308895007</v>
       </c>
       <c r="D78">
-        <v>-0.04542619342229519</v>
+        <v>-0.1798014818207478</v>
       </c>
       <c r="E78">
-        <v>-0.2071748425948913</v>
+        <v>0.1409156715320724</v>
       </c>
       <c r="F78">
-        <v>-0.02260901571384116</v>
+        <v>-0.1284497852004952</v>
       </c>
       <c r="G78">
-        <v>-0.08443930130895884</v>
+        <v>-0.6331759820209886</v>
       </c>
       <c r="H78">
-        <v>0.1271220340465638</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5358233019966693</v>
+      </c>
+      <c r="I78">
+        <v>0.01748801662974153</v>
+      </c>
+      <c r="J78">
+        <v>0.2043713833759954</v>
+      </c>
+      <c r="K78">
+        <v>0.2052382017447527</v>
+      </c>
+      <c r="L78">
+        <v>-0.09158056610999865</v>
+      </c>
+      <c r="M78">
+        <v>-0.1139068984891039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.136051564221046</v>
+        <v>-0.1358948117557722</v>
       </c>
       <c r="C79">
-        <v>-0.02958095525885719</v>
+        <v>-0.07437404222275688</v>
       </c>
       <c r="D79">
-        <v>-0.000534988070226602</v>
+        <v>0.005173211013283411</v>
       </c>
       <c r="E79">
-        <v>0.06759157912408537</v>
+        <v>0.005484231318323681</v>
       </c>
       <c r="F79">
-        <v>-0.1622829276405949</v>
+        <v>0.002427710264919239</v>
       </c>
       <c r="G79">
-        <v>0.01049140955038751</v>
+        <v>0.1236813522747838</v>
       </c>
       <c r="H79">
-        <v>-0.05627849863865415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1154987027977517</v>
+      </c>
+      <c r="I79">
+        <v>-0.09168235454595315</v>
+      </c>
+      <c r="J79">
+        <v>-0.09416683380187781</v>
+      </c>
+      <c r="K79">
+        <v>0.008615393607475048</v>
+      </c>
+      <c r="L79">
+        <v>0.02448065971753106</v>
+      </c>
+      <c r="M79">
+        <v>0.04703791341570713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03553850555953492</v>
+        <v>-0.05952970791177908</v>
       </c>
       <c r="C80">
-        <v>-0.01212466626034516</v>
+        <v>-0.03067237544001016</v>
       </c>
       <c r="D80">
-        <v>-0.01204955428548331</v>
+        <v>0.06909047168728129</v>
       </c>
       <c r="E80">
-        <v>0.03139383878223417</v>
+        <v>-0.002984133634932029</v>
       </c>
       <c r="F80">
-        <v>0.01356590744107344</v>
+        <v>-0.04019584876557963</v>
       </c>
       <c r="G80">
-        <v>0.01014835624596279</v>
+        <v>0.004960534015890254</v>
       </c>
       <c r="H80">
-        <v>0.01995257509008038</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01608224994818941</v>
+      </c>
+      <c r="I80">
+        <v>0.0745313325729807</v>
+      </c>
+      <c r="J80">
+        <v>0.009549245083061092</v>
+      </c>
+      <c r="K80">
+        <v>-0.1701862432380758</v>
+      </c>
+      <c r="L80">
+        <v>-0.1300325446665765</v>
+      </c>
+      <c r="M80">
+        <v>-0.03183727252103945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1076146391227942</v>
+        <v>-0.1231263515328322</v>
       </c>
       <c r="C81">
-        <v>-0.03126612176072021</v>
+        <v>-0.06304597549106607</v>
       </c>
       <c r="D81">
-        <v>-0.01391071146694545</v>
+        <v>0.002982161655556966</v>
       </c>
       <c r="E81">
-        <v>0.07946760379925014</v>
+        <v>0.001748344715130772</v>
       </c>
       <c r="F81">
-        <v>-0.1236953203631985</v>
+        <v>-0.01037321686241734</v>
       </c>
       <c r="G81">
-        <v>0.007138590593538416</v>
+        <v>0.07850947935463248</v>
       </c>
       <c r="H81">
-        <v>0.02353083561366992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.09908765041772677</v>
+      </c>
+      <c r="I81">
+        <v>-0.0851013922655751</v>
+      </c>
+      <c r="J81">
+        <v>-0.05560063743501104</v>
+      </c>
+      <c r="K81">
+        <v>0.01109966321910547</v>
+      </c>
+      <c r="L81">
+        <v>0.01768285633736927</v>
+      </c>
+      <c r="M81">
+        <v>0.06055637848874734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1161491923494838</v>
+        <v>-0.1283277625814168</v>
       </c>
       <c r="C82">
-        <v>-0.02887771094825568</v>
+        <v>-0.05235160827012681</v>
       </c>
       <c r="D82">
-        <v>-0.06554368505372847</v>
+        <v>0.02506262228986908</v>
       </c>
       <c r="E82">
-        <v>0.09827490881722624</v>
+        <v>0.001192794196430683</v>
       </c>
       <c r="F82">
-        <v>-0.2326763963501147</v>
+        <v>0.02345098299747341</v>
       </c>
       <c r="G82">
-        <v>0.01057199894484521</v>
+        <v>0.1921208740567005</v>
       </c>
       <c r="H82">
-        <v>-0.1252577176359634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1441481966456053</v>
+      </c>
+      <c r="I82">
+        <v>-0.1425125486930919</v>
+      </c>
+      <c r="J82">
+        <v>-0.02487486433586527</v>
+      </c>
+      <c r="K82">
+        <v>-0.07051431517699874</v>
+      </c>
+      <c r="L82">
+        <v>0.04741744768690741</v>
+      </c>
+      <c r="M82">
+        <v>0.04780360700399808</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.07856122709948624</v>
+        <v>-0.07840218060178537</v>
       </c>
       <c r="C83">
-        <v>-0.06363543974558224</v>
+        <v>-0.07970038361398137</v>
       </c>
       <c r="D83">
-        <v>-0.04781054644425391</v>
+        <v>0.03292436483830753</v>
       </c>
       <c r="E83">
-        <v>0.001863072684515493</v>
+        <v>0.003494631603060499</v>
       </c>
       <c r="F83">
-        <v>0.071625200465799</v>
+        <v>-0.0505753117959919</v>
       </c>
       <c r="G83">
-        <v>-0.03497791474593565</v>
+        <v>0.09894578339154753</v>
       </c>
       <c r="H83">
-        <v>-0.07475244745190615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02596324890191726</v>
+      </c>
+      <c r="I83">
+        <v>0.1009470776603922</v>
+      </c>
+      <c r="J83">
+        <v>0.08091115518237245</v>
+      </c>
+      <c r="K83">
+        <v>-0.1444947757578297</v>
+      </c>
+      <c r="L83">
+        <v>0.02064139499443332</v>
+      </c>
+      <c r="M83">
+        <v>-0.05311687690419114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.06068225577204224</v>
+        <v>-0.06054153388399287</v>
       </c>
       <c r="C84">
-        <v>-0.04705562906317208</v>
+        <v>0.02262435455143717</v>
       </c>
       <c r="D84">
-        <v>0.05493956599977749</v>
+        <v>-0.0009221727611393757</v>
       </c>
       <c r="E84">
-        <v>-0.02064305899333873</v>
+        <v>0.005951977897305779</v>
       </c>
       <c r="F84">
-        <v>-0.07918818414315415</v>
+        <v>-0.009528674583514639</v>
       </c>
       <c r="G84">
-        <v>0.1376112504874884</v>
+        <v>-0.1709994873959421</v>
       </c>
       <c r="H84">
-        <v>-0.03382215688882974</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.1192541040663526</v>
+      </c>
+      <c r="I84">
+        <v>-0.2288196407398983</v>
+      </c>
+      <c r="J84">
+        <v>0.1467204549441377</v>
+      </c>
+      <c r="K84">
+        <v>-0.1670312052604482</v>
+      </c>
+      <c r="L84">
+        <v>-0.1607922019689699</v>
+      </c>
+      <c r="M84">
+        <v>-0.2211752277825781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09811927149782866</v>
+        <v>-0.1111206969815636</v>
       </c>
       <c r="C85">
-        <v>-0.03660846753352537</v>
+        <v>-0.04964324686689256</v>
       </c>
       <c r="D85">
-        <v>-0.0286488069831411</v>
+        <v>0.01777050621613033</v>
       </c>
       <c r="E85">
-        <v>0.0587833201252551</v>
+        <v>0.03517284951528606</v>
       </c>
       <c r="F85">
-        <v>-0.1819643235734783</v>
+        <v>0.003546642177162075</v>
       </c>
       <c r="G85">
-        <v>-0.0211139625087852</v>
+        <v>0.1267415022316452</v>
       </c>
       <c r="H85">
-        <v>-0.05950254561770467</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1125646692233976</v>
+      </c>
+      <c r="I85">
+        <v>-0.08947810775498413</v>
+      </c>
+      <c r="J85">
+        <v>-0.09891686283724649</v>
+      </c>
+      <c r="K85">
+        <v>0.03006982453793372</v>
+      </c>
+      <c r="L85">
+        <v>0.0292016275237877</v>
+      </c>
+      <c r="M85">
+        <v>0.05148440983697002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0541832801021479</v>
+        <v>-0.07646246618138904</v>
       </c>
       <c r="C86">
-        <v>-0.04315443525623568</v>
+        <v>-0.02521003706041767</v>
       </c>
       <c r="D86">
-        <v>-0.03459627154247535</v>
+        <v>-0.008648330047758199</v>
       </c>
       <c r="E86">
-        <v>-0.02902780428626871</v>
+        <v>0.1159990028682918</v>
       </c>
       <c r="F86">
-        <v>0.02130440542495944</v>
+        <v>-0.04832924550919307</v>
       </c>
       <c r="G86">
-        <v>-0.03486952505484877</v>
+        <v>-0.3407760703157145</v>
       </c>
       <c r="H86">
-        <v>0.1201050675025909</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.3185649021804576</v>
+      </c>
+      <c r="I86">
+        <v>-0.5991944032686166</v>
+      </c>
+      <c r="J86">
+        <v>-0.4038255423136494</v>
+      </c>
+      <c r="K86">
+        <v>-0.06771412063710995</v>
+      </c>
+      <c r="L86">
+        <v>0.09920034523062941</v>
+      </c>
+      <c r="M86">
+        <v>-0.1799462706754877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09426261053435708</v>
+        <v>-0.1093416882679824</v>
       </c>
       <c r="C87">
-        <v>-0.05254989452407467</v>
+        <v>-0.08680320214120152</v>
       </c>
       <c r="D87">
-        <v>-0.007010413856230619</v>
+        <v>-0.02388373537407418</v>
       </c>
       <c r="E87">
-        <v>-0.06200577780331568</v>
+        <v>-0.02012728883628419</v>
       </c>
       <c r="F87">
-        <v>0.01732987821364649</v>
+        <v>-0.1352312137411333</v>
       </c>
       <c r="G87">
-        <v>-0.124893453901532</v>
+        <v>-0.04088879037390979</v>
       </c>
       <c r="H87">
-        <v>-0.01985243368045514</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09874881796806753</v>
+      </c>
+      <c r="I87">
+        <v>0.1028139593662469</v>
+      </c>
+      <c r="J87">
+        <v>-0.0355800001763078</v>
+      </c>
+      <c r="K87">
+        <v>-0.02205935105363476</v>
+      </c>
+      <c r="L87">
+        <v>0.2256096449348861</v>
+      </c>
+      <c r="M87">
+        <v>0.1079679298869297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05931993351957964</v>
+        <v>-0.05814671426442149</v>
       </c>
       <c r="C88">
-        <v>-0.03914693987130829</v>
+        <v>-0.05394696683517795</v>
       </c>
       <c r="D88">
-        <v>-0.02164349425524321</v>
+        <v>0.03379907037061699</v>
       </c>
       <c r="E88">
-        <v>-0.0004065805440439163</v>
+        <v>0.007242595568052414</v>
       </c>
       <c r="F88">
-        <v>0.01935762806034485</v>
+        <v>-0.03966605761212368</v>
       </c>
       <c r="G88">
-        <v>-0.03582992007442634</v>
+        <v>0.04220729020360538</v>
       </c>
       <c r="H88">
-        <v>-0.01595190329154143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.01744826846287315</v>
+      </c>
+      <c r="I88">
+        <v>0.004383619481667828</v>
+      </c>
+      <c r="J88">
+        <v>0.03629087815112463</v>
+      </c>
+      <c r="K88">
+        <v>-0.02871756784344863</v>
+      </c>
+      <c r="L88">
+        <v>-0.05367934886473454</v>
+      </c>
+      <c r="M88">
+        <v>0.03971942116116048</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1319074495240124</v>
+        <v>-0.2034354536196141</v>
       </c>
       <c r="C89">
-        <v>0.3494293098080348</v>
+        <v>0.3663784880947013</v>
       </c>
       <c r="D89">
-        <v>-0.1003875985354451</v>
+        <v>-0.03969007151598652</v>
       </c>
       <c r="E89">
-        <v>-0.08379585528415059</v>
+        <v>0.0489457043832953</v>
       </c>
       <c r="F89">
-        <v>0.06439296916592514</v>
+        <v>-0.02661717272089213</v>
       </c>
       <c r="G89">
-        <v>-0.02128009816977884</v>
+        <v>-0.01966028210394077</v>
       </c>
       <c r="H89">
-        <v>-0.03793617405519883</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02323462292315722</v>
+      </c>
+      <c r="I89">
+        <v>0.02316825361313244</v>
+      </c>
+      <c r="J89">
+        <v>0.04889871395210551</v>
+      </c>
+      <c r="K89">
+        <v>-0.03898123844748335</v>
+      </c>
+      <c r="L89">
+        <v>-0.005717391779275877</v>
+      </c>
+      <c r="M89">
+        <v>0.03389309910142796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1025837600433846</v>
+        <v>-0.1520145412330672</v>
       </c>
       <c r="C90">
-        <v>0.2774601927852501</v>
+        <v>0.2725596150235376</v>
       </c>
       <c r="D90">
-        <v>-0.04526866057302136</v>
+        <v>0.00684802977218469</v>
       </c>
       <c r="E90">
-        <v>-0.05877161025496994</v>
+        <v>0.004794606036453839</v>
       </c>
       <c r="F90">
-        <v>0.04535466266944612</v>
+        <v>-0.03097446715875226</v>
       </c>
       <c r="G90">
-        <v>-0.09901772506732254</v>
+        <v>0.02029490374315123</v>
       </c>
       <c r="H90">
-        <v>-0.01895928393507604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06699357532836916</v>
+      </c>
+      <c r="I90">
+        <v>-0.0002369478753747415</v>
+      </c>
+      <c r="J90">
+        <v>0.0345790405958695</v>
+      </c>
+      <c r="K90">
+        <v>0.03878024598473463</v>
+      </c>
+      <c r="L90">
+        <v>-0.02844482113896106</v>
+      </c>
+      <c r="M90">
+        <v>-0.03991131869495924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08099342793952477</v>
+        <v>-0.08188404959793893</v>
       </c>
       <c r="C91">
-        <v>-0.01619389798568793</v>
+        <v>-0.05439810777906933</v>
       </c>
       <c r="D91">
-        <v>-0.01290406577601709</v>
+        <v>-0.0006272514505169447</v>
       </c>
       <c r="E91">
-        <v>0.008262343949720185</v>
+        <v>0.007027325032039597</v>
       </c>
       <c r="F91">
-        <v>-0.09695523425428122</v>
+        <v>0.01670931284445473</v>
       </c>
       <c r="G91">
-        <v>0.05220634544911183</v>
+        <v>0.06712627552969457</v>
       </c>
       <c r="H91">
-        <v>-0.03955640844687339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.07232684183143694</v>
+      </c>
+      <c r="I91">
+        <v>-0.05138110941351644</v>
+      </c>
+      <c r="J91">
+        <v>-0.02229761213681672</v>
+      </c>
+      <c r="K91">
+        <v>0.006288724301921643</v>
+      </c>
+      <c r="L91">
+        <v>-0.009446555279400949</v>
+      </c>
+      <c r="M91">
+        <v>-0.007469755957998312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1061672965194365</v>
+        <v>-0.1693515133438398</v>
       </c>
       <c r="C92">
-        <v>0.3206859783855096</v>
+        <v>0.3166132955596295</v>
       </c>
       <c r="D92">
-        <v>-0.07627209193310647</v>
+        <v>-0.03114601006631171</v>
       </c>
       <c r="E92">
-        <v>-0.05048234749643594</v>
+        <v>0.03584892762775559</v>
       </c>
       <c r="F92">
-        <v>0.008114158587921416</v>
+        <v>-0.0442504547153834</v>
       </c>
       <c r="G92">
-        <v>0.09703519080752211</v>
+        <v>0.02047586913429724</v>
       </c>
       <c r="H92">
-        <v>-0.02261743434325755</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.02788543528703594</v>
+      </c>
+      <c r="I92">
+        <v>-0.003182232324056171</v>
+      </c>
+      <c r="J92">
+        <v>0.04170665199093306</v>
+      </c>
+      <c r="K92">
+        <v>-0.03433954136383904</v>
+      </c>
+      <c r="L92">
+        <v>-0.04694758877960219</v>
+      </c>
+      <c r="M92">
+        <v>0.05773462400770139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1130634366327243</v>
+        <v>-0.1603461761915744</v>
       </c>
       <c r="C93">
-        <v>0.2665714781979938</v>
+        <v>0.2923788914072477</v>
       </c>
       <c r="D93">
-        <v>-0.05041080645213542</v>
+        <v>0.03022417906492171</v>
       </c>
       <c r="E93">
-        <v>-0.02795677677874765</v>
+        <v>-0.006956244427359918</v>
       </c>
       <c r="F93">
-        <v>0.02846313596021441</v>
+        <v>-0.01755426926689537</v>
       </c>
       <c r="G93">
-        <v>-0.01213595398346301</v>
+        <v>0.0009721997337379796</v>
       </c>
       <c r="H93">
-        <v>0.02891626535179471</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04258029734429167</v>
+      </c>
+      <c r="I93">
+        <v>-0.008771995906306528</v>
+      </c>
+      <c r="J93">
+        <v>-0.01871816445444282</v>
+      </c>
+      <c r="K93">
+        <v>-0.02500789941305304</v>
+      </c>
+      <c r="L93">
+        <v>-0.004087122186270211</v>
+      </c>
+      <c r="M93">
+        <v>-0.01759676593762583</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09721251333013986</v>
+        <v>-0.114420998424188</v>
       </c>
       <c r="C94">
-        <v>-0.05164004879210275</v>
+        <v>-0.06944917065694164</v>
       </c>
       <c r="D94">
-        <v>-0.003830781831236239</v>
+        <v>-0.01220162203019037</v>
       </c>
       <c r="E94">
-        <v>0.01569102385972353</v>
+        <v>0.03028234807529248</v>
       </c>
       <c r="F94">
-        <v>-0.1591893284028863</v>
+        <v>0.03446971615142636</v>
       </c>
       <c r="G94">
-        <v>0.05976857710512696</v>
+        <v>0.1058167006168745</v>
       </c>
       <c r="H94">
-        <v>-0.07178778744709663</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.1082304330567577</v>
+      </c>
+      <c r="I94">
+        <v>-0.05228558055808953</v>
+      </c>
+      <c r="J94">
+        <v>-0.03104601028675091</v>
+      </c>
+      <c r="K94">
+        <v>0.01116804787432778</v>
+      </c>
+      <c r="L94">
+        <v>-0.04861663927209979</v>
+      </c>
+      <c r="M94">
+        <v>0.01758490657188444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1194592898209676</v>
+        <v>-0.1159054362145339</v>
       </c>
       <c r="C95">
-        <v>-0.07875359255798611</v>
+        <v>-0.06606488737497403</v>
       </c>
       <c r="D95">
-        <v>-0.06173896816749436</v>
+        <v>-0.01290343954045623</v>
       </c>
       <c r="E95">
-        <v>-0.04814466160910955</v>
+        <v>0.07254532749073596</v>
       </c>
       <c r="F95">
-        <v>0.05794372667705699</v>
+        <v>-0.07633621793858374</v>
       </c>
       <c r="G95">
-        <v>-0.0405513545646918</v>
+        <v>-0.1587525732460068</v>
       </c>
       <c r="H95">
-        <v>-0.1140915981696417</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1928526540853415</v>
+      </c>
+      <c r="I95">
+        <v>-0.009718457999926502</v>
+      </c>
+      <c r="J95">
+        <v>-0.05778094916349576</v>
+      </c>
+      <c r="K95">
+        <v>-0.129950249785139</v>
+      </c>
+      <c r="L95">
+        <v>-0.04870939228721582</v>
+      </c>
+      <c r="M95">
+        <v>0.5882963198365133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.002499651380261349</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002884199688692059</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0008885945200375738</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001023927258871259</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0001257887393128999</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01058817201612299</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01004875170254838</v>
+      </c>
+      <c r="I96">
+        <v>0.006790680483234674</v>
+      </c>
+      <c r="J96">
+        <v>0.002850078858047927</v>
+      </c>
+      <c r="K96">
+        <v>0.008729277177089779</v>
+      </c>
+      <c r="L96">
+        <v>0.002500084434964602</v>
+      </c>
+      <c r="M96">
+        <v>-0.01431878603528878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2214636314266036</v>
+        <v>-0.1676862496488009</v>
       </c>
       <c r="C97">
-        <v>0.12066865632964</v>
+        <v>-0.06593685108410043</v>
       </c>
       <c r="D97">
-        <v>0.9032752360933576</v>
+        <v>-0.1903118573162698</v>
       </c>
       <c r="E97">
-        <v>0.03777205012840042</v>
+        <v>-0.9168652546316857</v>
       </c>
       <c r="F97">
-        <v>0.1023792368597527</v>
+        <v>0.03512854362386666</v>
       </c>
       <c r="G97">
-        <v>-0.005617200897659594</v>
+        <v>-0.1308229201927848</v>
       </c>
       <c r="H97">
-        <v>0.01395018261386141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.06111855800417127</v>
+      </c>
+      <c r="I97">
+        <v>-0.07238651095684703</v>
+      </c>
+      <c r="J97">
+        <v>0.06159431378200049</v>
+      </c>
+      <c r="K97">
+        <v>0.01178059702532901</v>
+      </c>
+      <c r="L97">
+        <v>0.02202685335465011</v>
+      </c>
+      <c r="M97">
+        <v>0.02059830683592796</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2926232372403157</v>
+        <v>-0.2516825855464099</v>
       </c>
       <c r="C98">
-        <v>-0.0857319385785926</v>
+        <v>-0.1049788700185401</v>
       </c>
       <c r="D98">
-        <v>-0.09112818047065109</v>
+        <v>-0.01493273321621898</v>
       </c>
       <c r="E98">
-        <v>0.1790270527556732</v>
+        <v>0.03727741974641462</v>
       </c>
       <c r="F98">
-        <v>0.2595987887051459</v>
+        <v>0.3828837676042543</v>
       </c>
       <c r="G98">
-        <v>0.3331385419052454</v>
+        <v>-0.189631662536193</v>
       </c>
       <c r="H98">
-        <v>0.1850516495416497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.03530863532187572</v>
+      </c>
+      <c r="I98">
+        <v>0.2436680455462216</v>
+      </c>
+      <c r="J98">
+        <v>0.1851209274646096</v>
+      </c>
+      <c r="K98">
+        <v>-0.4942892303185018</v>
+      </c>
+      <c r="L98">
+        <v>0.2461849437094505</v>
+      </c>
+      <c r="M98">
+        <v>-0.03993816761226771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06969533889643627</v>
+        <v>-0.06594724066464955</v>
       </c>
       <c r="C99">
-        <v>-0.04837341718841518</v>
+        <v>-0.04681776130601952</v>
       </c>
       <c r="D99">
-        <v>-0.02873159580065352</v>
+        <v>0.00390922838935351</v>
       </c>
       <c r="E99">
-        <v>0.007152387613610036</v>
+        <v>0.05676202021376007</v>
       </c>
       <c r="F99">
-        <v>-0.010208885477211</v>
+        <v>0.0120869946956483</v>
       </c>
       <c r="G99">
-        <v>-0.03208686001616679</v>
+        <v>0.01994680650852464</v>
       </c>
       <c r="H99">
-        <v>-0.007544863239039517</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02471741656336081</v>
+      </c>
+      <c r="I99">
+        <v>-0.009766276790167337</v>
+      </c>
+      <c r="J99">
+        <v>0.02447616015723808</v>
+      </c>
+      <c r="K99">
+        <v>0.02960289976634831</v>
+      </c>
+      <c r="L99">
+        <v>0.0348024837839158</v>
+      </c>
+      <c r="M99">
+        <v>0.05403887160648347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.003328988387305604</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.004358585985773241</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.0004055161836573733</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.0438268649002158</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.0298868542691775</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.02959177566935003</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.0253402139127204</v>
+      </c>
+      <c r="I100">
+        <v>0.006547855649369643</v>
+      </c>
+      <c r="J100">
+        <v>-0.004060586360947455</v>
+      </c>
+      <c r="K100">
+        <v>-0.06103785361121321</v>
+      </c>
+      <c r="L100">
+        <v>0.02164968947082461</v>
+      </c>
+      <c r="M100">
+        <v>0.03094322591585374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05487721480481249</v>
+        <v>-0.03913256305543511</v>
       </c>
       <c r="C101">
-        <v>-0.01563557116183496</v>
+        <v>-0.02650576347402488</v>
       </c>
       <c r="D101">
-        <v>-0.008820808235971669</v>
+        <v>0.009346907996747127</v>
       </c>
       <c r="E101">
-        <v>-0.03106523578783005</v>
+        <v>0.01234477081746214</v>
       </c>
       <c r="F101">
-        <v>-0.018444358886602</v>
+        <v>-0.07152913726748629</v>
       </c>
       <c r="G101">
-        <v>0.009062395150885055</v>
+        <v>0.02397771784342347</v>
       </c>
       <c r="H101">
-        <v>0.02413011399799609</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.007087749800211474</v>
+      </c>
+      <c r="I101">
+        <v>0.01051174381875103</v>
+      </c>
+      <c r="J101">
+        <v>-0.02336665455934986</v>
+      </c>
+      <c r="K101">
+        <v>-0.09234670479804223</v>
+      </c>
+      <c r="L101">
+        <v>-0.008656854542983873</v>
+      </c>
+      <c r="M101">
+        <v>0.009487684253113655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
